--- a/s60_signal/position-1398-1288-800.xlsx
+++ b/s60_signal/position-1398-1288-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="608">
   <si>
     <t>trade_time</t>
   </si>
@@ -823,7 +823,7 @@
     <t>2021-06-28</t>
   </si>
   <si>
-    <t>2021-07-02</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2011-05-05</t>
@@ -2195,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P834"/>
+  <dimension ref="A1:P835"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42512,52 +42512,52 @@
     </row>
     <row r="819" spans="1:16">
       <c r="A819" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B819" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C819">
-        <v>0.07128534128785002</v>
+        <v>-0.4054252239686154</v>
       </c>
       <c r="D819" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E819">
-        <v>-0.2771869466644232</v>
+        <v>-0.1740483763193672</v>
       </c>
       <c r="F819">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G819">
-        <v>0.00622871465871215</v>
+        <v>0.005805425223968616</v>
       </c>
       <c r="H819">
-        <v>0.005917186946664423</v>
+        <v>0.005594048376319368</v>
       </c>
       <c r="I819">
-        <v>0.3484722879522733</v>
+        <v>0.2313768476492482</v>
       </c>
       <c r="J819">
-        <v>0.61574293174243</v>
+        <v>0.6149356879145773</v>
       </c>
       <c r="K819">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L819">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="M819">
-        <v>5.03</v>
+        <v>4.69</v>
       </c>
       <c r="N819">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="O819">
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -42568,28 +42568,28 @@
         <v>108</v>
       </c>
       <c r="C820">
-        <v>0.07634339516565047</v>
+        <v>0.07128534128785002</v>
       </c>
       <c r="D820" t="s">
         <v>265</v>
       </c>
       <c r="E820">
-        <v>-0.2720985444633559</v>
+        <v>-0.2771869466644232</v>
       </c>
       <c r="F820">
         <v>-1</v>
       </c>
       <c r="G820">
-        <v>0.00622365660483435</v>
+        <v>0.00622871465871215</v>
       </c>
       <c r="H820">
-        <v>0.005912098544463356</v>
+        <v>0.005917186946664423</v>
       </c>
       <c r="I820">
-        <v>0.3484419396290064</v>
+        <v>0.3484722879522733</v>
       </c>
       <c r="J820">
-        <v>0.6147313209668699</v>
+        <v>0.61574293174243</v>
       </c>
       <c r="K820">
         <v>5</v>
@@ -42607,7 +42607,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -42618,28 +42618,28 @@
         <v>108</v>
       </c>
       <c r="C821">
-        <v>0.07324688975600813</v>
+        <v>0.07634339516565047</v>
       </c>
       <c r="D821" t="s">
         <v>265</v>
       </c>
       <c r="E821">
-        <v>-0.2752136289054556</v>
+        <v>-0.2720985444633559</v>
       </c>
       <c r="F821">
         <v>-1</v>
       </c>
       <c r="G821">
-        <v>0.006226753110243993</v>
+        <v>0.00622365660483435</v>
       </c>
       <c r="H821">
-        <v>0.005915213628905455</v>
+        <v>0.005912098544463356</v>
       </c>
       <c r="I821">
-        <v>0.3484605186614638</v>
+        <v>0.3484419396290064</v>
       </c>
       <c r="J821">
-        <v>0.6153506220487983</v>
+        <v>0.6147313209668699</v>
       </c>
       <c r="K821">
         <v>5</v>
@@ -42657,7 +42657,7 @@
         <v>1</v>
       </c>
       <c r="P821" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -42668,28 +42668,28 @@
         <v>108</v>
       </c>
       <c r="C822">
-        <v>0.06783624618469419</v>
+        <v>0.07324688975600813</v>
       </c>
       <c r="D822" t="s">
         <v>265</v>
       </c>
       <c r="E822">
-        <v>-0.280656736338198</v>
+        <v>-0.2752136289054556</v>
       </c>
       <c r="F822">
         <v>-1</v>
       </c>
       <c r="G822">
-        <v>0.006232163753815305</v>
+        <v>0.006226753110243993</v>
       </c>
       <c r="H822">
-        <v>0.005920656736338198</v>
+        <v>0.005915213628905455</v>
       </c>
       <c r="I822">
-        <v>0.3484929825228922</v>
+        <v>0.3484605186614638</v>
       </c>
       <c r="J822">
-        <v>0.6164327507630611</v>
+        <v>0.6153506220487983</v>
       </c>
       <c r="K822">
         <v>5</v>
@@ -42707,7 +42707,7 @@
         <v>1</v>
       </c>
       <c r="P822" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -42718,28 +42718,28 @@
         <v>108</v>
       </c>
       <c r="C823">
-        <v>0.05992100718036975</v>
+        <v>0.06783624618469419</v>
       </c>
       <c r="D823" t="s">
         <v>265</v>
       </c>
       <c r="E823">
-        <v>-0.2886194667765487</v>
+        <v>-0.280656736338198</v>
       </c>
       <c r="F823">
         <v>-1</v>
       </c>
       <c r="G823">
-        <v>0.00624007899281963</v>
+        <v>0.006232163753815305</v>
       </c>
       <c r="H823">
-        <v>0.005928619466776548</v>
+        <v>0.005920656736338198</v>
       </c>
       <c r="I823">
-        <v>0.3485404739569185</v>
+        <v>0.3484929825228922</v>
       </c>
       <c r="J823">
-        <v>0.6180157985639261</v>
+        <v>0.6164327507630611</v>
       </c>
       <c r="K823">
         <v>5</v>
@@ -42757,7 +42757,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -42768,28 +42768,28 @@
         <v>108</v>
       </c>
       <c r="C824">
-        <v>0.0506503756195813</v>
+        <v>0.05992100718036975</v>
       </c>
       <c r="D824" t="s">
         <v>265</v>
       </c>
       <c r="E824">
-        <v>-0.2979457221267015</v>
+        <v>-0.2886194667765487</v>
       </c>
       <c r="F824">
         <v>-1</v>
       </c>
       <c r="G824">
-        <v>0.006249349624380418</v>
+        <v>0.00624007899281963</v>
       </c>
       <c r="H824">
-        <v>0.0059379457221267</v>
+        <v>0.005928619466776548</v>
       </c>
       <c r="I824">
-        <v>0.3485960977462828</v>
+        <v>0.3485404739569185</v>
       </c>
       <c r="J824">
-        <v>0.6198699248760837</v>
+        <v>0.6180157985639261</v>
       </c>
       <c r="K824">
         <v>5</v>
@@ -42807,7 +42807,7 @@
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -42818,28 +42818,28 @@
         <v>108</v>
       </c>
       <c r="C825">
-        <v>0.04428233560155359</v>
+        <v>0.0506503756195813</v>
       </c>
       <c r="D825" t="s">
         <v>265</v>
       </c>
       <c r="E825">
-        <v>-0.3043519703848374</v>
+        <v>-0.2979457221267015</v>
       </c>
       <c r="F825">
         <v>-1</v>
       </c>
       <c r="G825">
-        <v>0.006255717664398446</v>
+        <v>0.006249349624380418</v>
       </c>
       <c r="H825">
-        <v>0.005944351970384836</v>
+        <v>0.0059379457221267</v>
       </c>
       <c r="I825">
-        <v>0.348634305986391</v>
+        <v>0.3485960977462828</v>
       </c>
       <c r="J825">
-        <v>0.6211435328796893</v>
+        <v>0.6198699248760837</v>
       </c>
       <c r="K825">
         <v>5</v>
@@ -42857,7 +42857,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -42868,28 +42868,28 @@
         <v>108</v>
       </c>
       <c r="C826">
-        <v>0.04151836842568901</v>
+        <v>0.04428233560155359</v>
       </c>
       <c r="D826" t="s">
         <v>265</v>
       </c>
       <c r="E826">
-        <v>-0.3071325213637568</v>
+        <v>-0.3043519703848374</v>
       </c>
       <c r="F826">
         <v>-1</v>
       </c>
       <c r="G826">
-        <v>0.006258481631574311</v>
+        <v>0.006255717664398446</v>
       </c>
       <c r="H826">
-        <v>0.005947132521363757</v>
+        <v>0.005944351970384836</v>
       </c>
       <c r="I826">
-        <v>0.3486508897894458</v>
+        <v>0.348634305986391</v>
       </c>
       <c r="J826">
-        <v>0.6216963263148622</v>
+        <v>0.6211435328796893</v>
       </c>
       <c r="K826">
         <v>5</v>
@@ -42907,7 +42907,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -42918,28 +42918,28 @@
         <v>108</v>
       </c>
       <c r="C827">
-        <v>0.03761276525581048</v>
+        <v>0.04151836842568901</v>
       </c>
       <c r="D827" t="s">
         <v>265</v>
       </c>
       <c r="E827">
-        <v>-0.3110615581526548</v>
+        <v>-0.3071325213637568</v>
       </c>
       <c r="F827">
         <v>-1</v>
       </c>
       <c r="G827">
-        <v>0.006262387234744189</v>
+        <v>0.006258481631574311</v>
       </c>
       <c r="H827">
-        <v>0.005951061558152654</v>
+        <v>0.005947132521363757</v>
       </c>
       <c r="I827">
-        <v>0.3486743234084653</v>
+        <v>0.3486508897894458</v>
       </c>
       <c r="J827">
-        <v>0.6224774469488379</v>
+        <v>0.6216963263148622</v>
       </c>
       <c r="K827">
         <v>5</v>
@@ -42957,7 +42957,7 @@
         <v>1</v>
       </c>
       <c r="P827" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="828" spans="1:16">
@@ -42968,28 +42968,28 @@
         <v>108</v>
       </c>
       <c r="C828">
-        <v>0.03569710776418988</v>
+        <v>0.03761276525581048</v>
       </c>
       <c r="D828" t="s">
         <v>265</v>
       </c>
       <c r="E828">
-        <v>-0.3129887095892254</v>
+        <v>-0.3110615581526548</v>
       </c>
       <c r="F828">
         <v>-1</v>
       </c>
       <c r="G828">
-        <v>0.00626430289223581</v>
+        <v>0.006262387234744189</v>
       </c>
       <c r="H828">
-        <v>0.005952988709589225</v>
+        <v>0.005951061558152654</v>
       </c>
       <c r="I828">
-        <v>0.3486858173534153</v>
+        <v>0.3486743234084653</v>
       </c>
       <c r="J828">
-        <v>0.622860578447162</v>
+        <v>0.6224774469488379</v>
       </c>
       <c r="K828">
         <v>5</v>
@@ -43007,7 +43007,7 @@
         <v>1</v>
       </c>
       <c r="P828" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -43018,28 +43018,28 @@
         <v>108</v>
       </c>
       <c r="C829">
-        <v>0.02474993976449547</v>
+        <v>0.03569710776418988</v>
       </c>
       <c r="D829" t="s">
         <v>265</v>
       </c>
       <c r="E829">
-        <v>-0.3240015605969178</v>
+        <v>-0.3129887095892254</v>
       </c>
       <c r="F829">
         <v>-1</v>
       </c>
       <c r="G829">
-        <v>0.006275250060235505</v>
+        <v>0.00626430289223581</v>
       </c>
       <c r="H829">
-        <v>0.005964001560596918</v>
+        <v>0.005952988709589225</v>
       </c>
       <c r="I829">
-        <v>0.3487515003614132</v>
+        <v>0.3486858173534153</v>
       </c>
       <c r="J829">
-        <v>0.6250500120471009</v>
+        <v>0.622860578447162</v>
       </c>
       <c r="K829">
         <v>5</v>
@@ -43057,7 +43057,7 @@
         <v>1</v>
       </c>
       <c r="P829" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -43068,28 +43068,28 @@
         <v>108</v>
       </c>
       <c r="C830">
-        <v>0.01071786725750856</v>
+        <v>0.02474993976449547</v>
       </c>
       <c r="D830" t="s">
         <v>265</v>
       </c>
       <c r="E830">
-        <v>-0.3381178255389465</v>
+        <v>-0.3240015605969178</v>
       </c>
       <c r="F830">
         <v>-1</v>
       </c>
       <c r="G830">
-        <v>0.006289282132742491</v>
+        <v>0.006275250060235505</v>
       </c>
       <c r="H830">
-        <v>0.005978117825538947</v>
+        <v>0.005964001560596918</v>
       </c>
       <c r="I830">
-        <v>0.3488356927964551</v>
+        <v>0.3487515003614132</v>
       </c>
       <c r="J830">
-        <v>0.6278564265484983</v>
+        <v>0.6250500120471009</v>
       </c>
       <c r="K830">
         <v>5</v>
@@ -43107,7 +43107,7 @@
         <v>1</v>
       </c>
       <c r="P830" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -43118,28 +43118,28 @@
         <v>108</v>
       </c>
       <c r="C831">
-        <v>0.001352073833325029</v>
+        <v>0.01071786725750856</v>
       </c>
       <c r="D831" t="s">
         <v>265</v>
       </c>
       <c r="E831">
-        <v>-0.3475398137236754</v>
+        <v>-0.3381178255389465</v>
       </c>
       <c r="F831">
         <v>-1</v>
       </c>
       <c r="G831">
-        <v>0.006298647926166675</v>
+        <v>0.006289282132742491</v>
       </c>
       <c r="H831">
-        <v>0.005987539813723675</v>
+        <v>0.005978117825538947</v>
       </c>
       <c r="I831">
-        <v>0.3488918875570004</v>
+        <v>0.3488356927964551</v>
       </c>
       <c r="J831">
-        <v>0.629729585233335</v>
+        <v>0.6278564265484983</v>
       </c>
       <c r="K831">
         <v>5</v>
@@ -43157,7 +43157,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -43168,28 +43168,28 @@
         <v>108</v>
       </c>
       <c r="C832">
-        <v>-0.008765444084921192</v>
+        <v>0.001352073833325029</v>
       </c>
       <c r="D832" t="s">
         <v>265</v>
       </c>
       <c r="E832">
-        <v>-0.3577180367494308</v>
+        <v>-0.3475398137236754</v>
       </c>
       <c r="F832">
         <v>-1</v>
       </c>
       <c r="G832">
-        <v>0.006308765444084921</v>
+        <v>0.006298647926166675</v>
       </c>
       <c r="H832">
-        <v>0.005997718036749431</v>
+        <v>0.005987539813723675</v>
       </c>
       <c r="I832">
-        <v>0.3489525926645096</v>
+        <v>0.3488918875570004</v>
       </c>
       <c r="J832">
-        <v>0.6317530888169842</v>
+        <v>0.629729585233335</v>
       </c>
       <c r="K832">
         <v>5</v>
@@ -43207,7 +43207,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -43218,28 +43218,28 @@
         <v>108</v>
       </c>
       <c r="C833">
-        <v>-0.01826244241108999</v>
+        <v>-0.008765444084921192</v>
       </c>
       <c r="D833" t="s">
         <v>265</v>
       </c>
       <c r="E833">
-        <v>-0.3672720170655568</v>
+        <v>-0.3577180367494308</v>
       </c>
       <c r="F833">
         <v>-1</v>
       </c>
       <c r="G833">
-        <v>0.00631826244241109</v>
+        <v>0.006308765444084921</v>
       </c>
       <c r="H833">
-        <v>0.006007272017065557</v>
+        <v>0.005997718036749431</v>
       </c>
       <c r="I833">
-        <v>0.3490095746544668</v>
+        <v>0.3489525926645096</v>
       </c>
       <c r="J833">
-        <v>0.633652488482218</v>
+        <v>0.6317530888169842</v>
       </c>
       <c r="K833">
         <v>5</v>
@@ -43257,7 +43257,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -43265,48 +43265,98 @@
         <v>0</v>
       </c>
       <c r="B834" t="s">
+        <v>108</v>
+      </c>
+      <c r="C834">
+        <v>-0.01826244241108999</v>
+      </c>
+      <c r="D834" t="s">
+        <v>265</v>
+      </c>
+      <c r="E834">
+        <v>-0.3672720170655568</v>
+      </c>
+      <c r="F834">
+        <v>-1</v>
+      </c>
+      <c r="G834">
+        <v>0.00631826244241109</v>
+      </c>
+      <c r="H834">
+        <v>0.006007272017065557</v>
+      </c>
+      <c r="I834">
+        <v>0.3490095746544668</v>
+      </c>
+      <c r="J834">
+        <v>0.633652488482218</v>
+      </c>
+      <c r="K834">
+        <v>5</v>
+      </c>
+      <c r="L834">
+        <v>3.15</v>
+      </c>
+      <c r="M834">
+        <v>5.03</v>
+      </c>
+      <c r="N834">
+        <v>2.82</v>
+      </c>
+      <c r="O834">
+        <v>1</v>
+      </c>
+      <c r="P834" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="835" spans="1:16">
+      <c r="A835" s="1">
+        <v>0</v>
+      </c>
+      <c r="B835" t="s">
         <v>111</v>
       </c>
-      <c r="C834">
+      <c r="C835">
         <v>0.1126630239428299</v>
       </c>
-      <c r="D834" t="s">
+      <c r="D835" t="s">
         <v>269</v>
       </c>
-      <c r="E834">
-        <v>0.3688350017702726</v>
-      </c>
-      <c r="F834">
-        <v>1</v>
-      </c>
-      <c r="G834">
+      <c r="E835">
+        <v>0.384945957779212</v>
+      </c>
+      <c r="F835">
+        <v>1</v>
+      </c>
+      <c r="G835">
         <v>0.005287336976057171</v>
       </c>
-      <c r="H834">
-        <v>0.005031164998229727</v>
-      </c>
-      <c r="I834">
-        <v>0.2561719778274427</v>
-      </c>
-      <c r="J834">
+      <c r="H835">
+        <v>0.004955054042220787</v>
+      </c>
+      <c r="I835">
+        <v>0.2722829338363821</v>
+      </c>
+      <c r="J835">
         <v>0.5123439556548852</v>
       </c>
-      <c r="K834">
+      <c r="K835">
         <v>5.05</v>
       </c>
-      <c r="L834">
+      <c r="L835">
         <v>2.7</v>
       </c>
-      <c r="M834">
-        <v>4.55</v>
-      </c>
-      <c r="N834">
-        <v>2.7</v>
-      </c>
-      <c r="O834">
-        <v>1</v>
-      </c>
-      <c r="P834" t="s">
+      <c r="M835">
+        <v>4.46</v>
+      </c>
+      <c r="N835">
+        <v>2.67</v>
+      </c>
+      <c r="O835">
+        <v>1</v>
+      </c>
+      <c r="P835" t="s">
         <v>607</v>
       </c>
     </row>

--- a/s60_signal/position-1398-1288-800.xlsx
+++ b/s60_signal/position-1398-1288-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="607">
   <si>
     <t>trade_time</t>
   </si>
@@ -2192,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P835"/>
+  <dimension ref="A1:P837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -42559,96 +42559,96 @@
     </row>
     <row r="820" spans="1:16">
       <c r="A820" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B820" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C820">
-        <v>0.07634339516565047</v>
+        <v>-0.4095018052992714</v>
       </c>
       <c r="D820" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E820">
-        <v>-0.2720985444633559</v>
+        <v>-0.1778343498719965</v>
       </c>
       <c r="F820">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G820">
-        <v>0.00622365660483435</v>
+        <v>0.005809501805299272</v>
       </c>
       <c r="H820">
-        <v>0.005912098544463356</v>
+        <v>0.005597834349871997</v>
       </c>
       <c r="I820">
-        <v>0.3484419396290064</v>
+        <v>0.2316674554272748</v>
       </c>
       <c r="J820">
-        <v>0.6147313209668699</v>
+        <v>0.61574293174243</v>
       </c>
       <c r="K820">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L820">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="M820">
-        <v>5.03</v>
+        <v>4.69</v>
       </c>
       <c r="N820">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="O820">
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="821" spans="1:16">
       <c r="A821" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B821" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C821">
-        <v>-0.4043931708826927</v>
+        <v>0.07634339516565047</v>
       </c>
       <c r="D821" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E821">
-        <v>-0.1730898953346194</v>
+        <v>-0.2720985444633559</v>
       </c>
       <c r="F821">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G821">
-        <v>0.005804393170882693</v>
+        <v>0.00622365660483435</v>
       </c>
       <c r="H821">
-        <v>0.00559308989533462</v>
+        <v>0.005912098544463356</v>
       </c>
       <c r="I821">
-        <v>0.2313032755480733</v>
+        <v>0.3484419396290064</v>
       </c>
       <c r="J821">
         <v>0.6147313209668699</v>
       </c>
       <c r="K821">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="L821">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="M821">
-        <v>4.69</v>
+        <v>5.03</v>
       </c>
       <c r="N821">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="O821">
         <v>1</v>
@@ -42659,52 +42659,52 @@
     </row>
     <row r="822" spans="1:16">
       <c r="A822" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B822" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C822">
-        <v>0.07324688975600813</v>
+        <v>-0.4043931708826927</v>
       </c>
       <c r="D822" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E822">
-        <v>-0.2752136289054556</v>
+        <v>-0.1730898953346194</v>
       </c>
       <c r="F822">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G822">
-        <v>0.006226753110243993</v>
+        <v>0.005804393170882693</v>
       </c>
       <c r="H822">
-        <v>0.005915213628905455</v>
+        <v>0.00559308989533462</v>
       </c>
       <c r="I822">
-        <v>0.3484605186614638</v>
+        <v>0.2313032755480733</v>
       </c>
       <c r="J822">
-        <v>0.6153506220487983</v>
+        <v>0.6147313209668699</v>
       </c>
       <c r="K822">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L822">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="M822">
-        <v>5.03</v>
+        <v>4.69</v>
       </c>
       <c r="N822">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="O822">
         <v>1</v>
       </c>
       <c r="P822" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -42715,28 +42715,28 @@
         <v>108</v>
       </c>
       <c r="C823">
-        <v>0.06783624618469419</v>
+        <v>0.07324688975600813</v>
       </c>
       <c r="D823" t="s">
         <v>264</v>
       </c>
       <c r="E823">
-        <v>-0.280656736338198</v>
+        <v>-0.2752136289054556</v>
       </c>
       <c r="F823">
         <v>-1</v>
       </c>
       <c r="G823">
-        <v>0.006232163753815305</v>
+        <v>0.006226753110243993</v>
       </c>
       <c r="H823">
-        <v>0.005920656736338198</v>
+        <v>0.005915213628905455</v>
       </c>
       <c r="I823">
-        <v>0.3484929825228922</v>
+        <v>0.3484605186614638</v>
       </c>
       <c r="J823">
-        <v>0.6164327507630611</v>
+        <v>0.6153506220487983</v>
       </c>
       <c r="K823">
         <v>5</v>
@@ -42754,57 +42754,57 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="824" spans="1:16">
       <c r="A824" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B824" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C824">
-        <v>0.05992100718036975</v>
+        <v>-0.4075206413464314</v>
       </c>
       <c r="D824" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E824">
-        <v>-0.2886194667765487</v>
+        <v>-0.1759944174088637</v>
       </c>
       <c r="F824">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G824">
-        <v>0.00624007899281963</v>
+        <v>0.005807520641346433</v>
       </c>
       <c r="H824">
-        <v>0.005928619466776548</v>
+        <v>0.005595994417408864</v>
       </c>
       <c r="I824">
-        <v>0.3485404739569185</v>
+        <v>0.2315262239375677</v>
       </c>
       <c r="J824">
-        <v>0.6180157985639261</v>
+        <v>0.6153506220487983</v>
       </c>
       <c r="K824">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L824">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="M824">
-        <v>5.03</v>
+        <v>4.69</v>
       </c>
       <c r="N824">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="O824">
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -42815,28 +42815,28 @@
         <v>108</v>
       </c>
       <c r="C825">
-        <v>0.0506503756195813</v>
+        <v>0.06783624618469419</v>
       </c>
       <c r="D825" t="s">
         <v>264</v>
       </c>
       <c r="E825">
-        <v>-0.2979457221267015</v>
+        <v>-0.280656736338198</v>
       </c>
       <c r="F825">
         <v>-1</v>
       </c>
       <c r="G825">
-        <v>0.006249349624380418</v>
+        <v>0.006232163753815305</v>
       </c>
       <c r="H825">
-        <v>0.0059379457221267</v>
+        <v>0.005920656736338198</v>
       </c>
       <c r="I825">
-        <v>0.3485960977462828</v>
+        <v>0.3484929825228922</v>
       </c>
       <c r="J825">
-        <v>0.6198699248760837</v>
+        <v>0.6164327507630611</v>
       </c>
       <c r="K825">
         <v>5</v>
@@ -42854,7 +42854,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -42865,28 +42865,28 @@
         <v>108</v>
       </c>
       <c r="C826">
-        <v>0.04428233560155359</v>
+        <v>0.05992100718036975</v>
       </c>
       <c r="D826" t="s">
         <v>264</v>
       </c>
       <c r="E826">
-        <v>-0.3043519703848374</v>
+        <v>-0.2886194667765487</v>
       </c>
       <c r="F826">
         <v>-1</v>
       </c>
       <c r="G826">
-        <v>0.006255717664398446</v>
+        <v>0.00624007899281963</v>
       </c>
       <c r="H826">
-        <v>0.005944351970384836</v>
+        <v>0.005928619466776548</v>
       </c>
       <c r="I826">
-        <v>0.348634305986391</v>
+        <v>0.3485404739569185</v>
       </c>
       <c r="J826">
-        <v>0.6211435328796893</v>
+        <v>0.6180157985639261</v>
       </c>
       <c r="K826">
         <v>5</v>
@@ -42904,7 +42904,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -42915,28 +42915,28 @@
         <v>108</v>
       </c>
       <c r="C827">
-        <v>0.04151836842568901</v>
+        <v>0.0506503756195813</v>
       </c>
       <c r="D827" t="s">
         <v>264</v>
       </c>
       <c r="E827">
-        <v>-0.3071325213637568</v>
+        <v>-0.2979457221267015</v>
       </c>
       <c r="F827">
         <v>-1</v>
       </c>
       <c r="G827">
-        <v>0.006258481631574311</v>
+        <v>0.006249349624380418</v>
       </c>
       <c r="H827">
-        <v>0.005947132521363757</v>
+        <v>0.0059379457221267</v>
       </c>
       <c r="I827">
-        <v>0.3486508897894458</v>
+        <v>0.3485960977462828</v>
       </c>
       <c r="J827">
-        <v>0.6216963263148622</v>
+        <v>0.6198699248760837</v>
       </c>
       <c r="K827">
         <v>5</v>
@@ -42954,7 +42954,7 @@
         <v>1</v>
       </c>
       <c r="P827" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="828" spans="1:16">
@@ -42965,28 +42965,28 @@
         <v>108</v>
       </c>
       <c r="C828">
-        <v>0.03761276525581048</v>
+        <v>0.04428233560155359</v>
       </c>
       <c r="D828" t="s">
         <v>264</v>
       </c>
       <c r="E828">
-        <v>-0.3110615581526548</v>
+        <v>-0.3043519703848374</v>
       </c>
       <c r="F828">
         <v>-1</v>
       </c>
       <c r="G828">
-        <v>0.006262387234744189</v>
+        <v>0.006255717664398446</v>
       </c>
       <c r="H828">
-        <v>0.005951061558152654</v>
+        <v>0.005944351970384836</v>
       </c>
       <c r="I828">
-        <v>0.3486743234084653</v>
+        <v>0.348634305986391</v>
       </c>
       <c r="J828">
-        <v>0.6224774469488379</v>
+        <v>0.6211435328796893</v>
       </c>
       <c r="K828">
         <v>5</v>
@@ -43004,7 +43004,7 @@
         <v>1</v>
       </c>
       <c r="P828" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -43015,28 +43015,28 @@
         <v>108</v>
       </c>
       <c r="C829">
-        <v>0.03569710776418988</v>
+        <v>0.04151836842568901</v>
       </c>
       <c r="D829" t="s">
         <v>264</v>
       </c>
       <c r="E829">
-        <v>-0.3129887095892254</v>
+        <v>-0.3071325213637568</v>
       </c>
       <c r="F829">
         <v>-1</v>
       </c>
       <c r="G829">
-        <v>0.00626430289223581</v>
+        <v>0.006258481631574311</v>
       </c>
       <c r="H829">
-        <v>0.005952988709589225</v>
+        <v>0.005947132521363757</v>
       </c>
       <c r="I829">
-        <v>0.3486858173534153</v>
+        <v>0.3486508897894458</v>
       </c>
       <c r="J829">
-        <v>0.622860578447162</v>
+        <v>0.6216963263148622</v>
       </c>
       <c r="K829">
         <v>5</v>
@@ -43054,7 +43054,7 @@
         <v>1</v>
       </c>
       <c r="P829" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -43065,28 +43065,28 @@
         <v>108</v>
       </c>
       <c r="C830">
-        <v>0.02474993976449547</v>
+        <v>0.03761276525581048</v>
       </c>
       <c r="D830" t="s">
         <v>264</v>
       </c>
       <c r="E830">
-        <v>-0.3240015605969178</v>
+        <v>-0.3110615581526548</v>
       </c>
       <c r="F830">
         <v>-1</v>
       </c>
       <c r="G830">
-        <v>0.006275250060235505</v>
+        <v>0.006262387234744189</v>
       </c>
       <c r="H830">
-        <v>0.005964001560596918</v>
+        <v>0.005951061558152654</v>
       </c>
       <c r="I830">
-        <v>0.3487515003614132</v>
+        <v>0.3486743234084653</v>
       </c>
       <c r="J830">
-        <v>0.6250500120471009</v>
+        <v>0.6224774469488379</v>
       </c>
       <c r="K830">
         <v>5</v>
@@ -43104,7 +43104,7 @@
         <v>1</v>
       </c>
       <c r="P830" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -43115,28 +43115,28 @@
         <v>108</v>
       </c>
       <c r="C831">
-        <v>0.01071786725750856</v>
+        <v>0.03569710776418988</v>
       </c>
       <c r="D831" t="s">
         <v>264</v>
       </c>
       <c r="E831">
-        <v>-0.3381178255389465</v>
+        <v>-0.3129887095892254</v>
       </c>
       <c r="F831">
         <v>-1</v>
       </c>
       <c r="G831">
-        <v>0.006289282132742491</v>
+        <v>0.00626430289223581</v>
       </c>
       <c r="H831">
-        <v>0.005978117825538947</v>
+        <v>0.005952988709589225</v>
       </c>
       <c r="I831">
-        <v>0.3488356927964551</v>
+        <v>0.3486858173534153</v>
       </c>
       <c r="J831">
-        <v>0.6278564265484983</v>
+        <v>0.622860578447162</v>
       </c>
       <c r="K831">
         <v>5</v>
@@ -43154,7 +43154,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -43165,28 +43165,28 @@
         <v>108</v>
       </c>
       <c r="C832">
-        <v>0.001352073833325029</v>
+        <v>0.02474993976449547</v>
       </c>
       <c r="D832" t="s">
         <v>264</v>
       </c>
       <c r="E832">
-        <v>-0.3475398137236754</v>
+        <v>-0.3240015605969178</v>
       </c>
       <c r="F832">
         <v>-1</v>
       </c>
       <c r="G832">
-        <v>0.006298647926166675</v>
+        <v>0.006275250060235505</v>
       </c>
       <c r="H832">
-        <v>0.005987539813723675</v>
+        <v>0.005964001560596918</v>
       </c>
       <c r="I832">
-        <v>0.3488918875570004</v>
+        <v>0.3487515003614132</v>
       </c>
       <c r="J832">
-        <v>0.629729585233335</v>
+        <v>0.6250500120471009</v>
       </c>
       <c r="K832">
         <v>5</v>
@@ -43204,7 +43204,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -43215,28 +43215,28 @@
         <v>108</v>
       </c>
       <c r="C833">
-        <v>-0.008765444084921192</v>
+        <v>0.01071786725750856</v>
       </c>
       <c r="D833" t="s">
         <v>264</v>
       </c>
       <c r="E833">
-        <v>-0.3577180367494308</v>
+        <v>-0.3381178255389465</v>
       </c>
       <c r="F833">
         <v>-1</v>
       </c>
       <c r="G833">
-        <v>0.006308765444084921</v>
+        <v>0.006289282132742491</v>
       </c>
       <c r="H833">
-        <v>0.005997718036749431</v>
+        <v>0.005978117825538947</v>
       </c>
       <c r="I833">
-        <v>0.3489525926645096</v>
+        <v>0.3488356927964551</v>
       </c>
       <c r="J833">
-        <v>0.6317530888169842</v>
+        <v>0.6278564265484983</v>
       </c>
       <c r="K833">
         <v>5</v>
@@ -43254,7 +43254,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -43265,28 +43265,28 @@
         <v>108</v>
       </c>
       <c r="C834">
-        <v>-0.01826244241108999</v>
+        <v>0.001352073833325029</v>
       </c>
       <c r="D834" t="s">
         <v>264</v>
       </c>
       <c r="E834">
-        <v>-0.3672720170655568</v>
+        <v>-0.3475398137236754</v>
       </c>
       <c r="F834">
         <v>-1</v>
       </c>
       <c r="G834">
-        <v>0.00631826244241109</v>
+        <v>0.006298647926166675</v>
       </c>
       <c r="H834">
-        <v>0.006007272017065557</v>
+        <v>0.005987539813723675</v>
       </c>
       <c r="I834">
-        <v>0.3490095746544668</v>
+        <v>0.3488918875570004</v>
       </c>
       <c r="J834">
-        <v>0.633652488482218</v>
+        <v>0.629729585233335</v>
       </c>
       <c r="K834">
         <v>5</v>
@@ -43304,7 +43304,7 @@
         <v>1</v>
       </c>
       <c r="P834" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -43312,48 +43312,148 @@
         <v>0</v>
       </c>
       <c r="B835" t="s">
+        <v>108</v>
+      </c>
+      <c r="C835">
+        <v>-0.008765444084921192</v>
+      </c>
+      <c r="D835" t="s">
+        <v>264</v>
+      </c>
+      <c r="E835">
+        <v>-0.3577180367494308</v>
+      </c>
+      <c r="F835">
+        <v>-1</v>
+      </c>
+      <c r="G835">
+        <v>0.006308765444084921</v>
+      </c>
+      <c r="H835">
+        <v>0.005997718036749431</v>
+      </c>
+      <c r="I835">
+        <v>0.3489525926645096</v>
+      </c>
+      <c r="J835">
+        <v>0.6317530888169842</v>
+      </c>
+      <c r="K835">
+        <v>5</v>
+      </c>
+      <c r="L835">
+        <v>3.15</v>
+      </c>
+      <c r="M835">
+        <v>5.03</v>
+      </c>
+      <c r="N835">
+        <v>2.82</v>
+      </c>
+      <c r="O835">
+        <v>1</v>
+      </c>
+      <c r="P835" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="836" spans="1:16">
+      <c r="A836" s="1">
+        <v>0</v>
+      </c>
+      <c r="B836" t="s">
+        <v>108</v>
+      </c>
+      <c r="C836">
+        <v>-0.01826244241108999</v>
+      </c>
+      <c r="D836" t="s">
+        <v>264</v>
+      </c>
+      <c r="E836">
+        <v>-0.3672720170655568</v>
+      </c>
+      <c r="F836">
+        <v>-1</v>
+      </c>
+      <c r="G836">
+        <v>0.00631826244241109</v>
+      </c>
+      <c r="H836">
+        <v>0.006007272017065557</v>
+      </c>
+      <c r="I836">
+        <v>0.3490095746544668</v>
+      </c>
+      <c r="J836">
+        <v>0.633652488482218</v>
+      </c>
+      <c r="K836">
+        <v>5</v>
+      </c>
+      <c r="L836">
+        <v>3.15</v>
+      </c>
+      <c r="M836">
+        <v>5.03</v>
+      </c>
+      <c r="N836">
+        <v>2.82</v>
+      </c>
+      <c r="O836">
+        <v>1</v>
+      </c>
+      <c r="P836" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="837" spans="1:16">
+      <c r="A837" s="1">
+        <v>0</v>
+      </c>
+      <c r="B837" t="s">
         <v>111</v>
       </c>
-      <c r="C835">
+      <c r="C837">
         <v>0.1126630239428299</v>
       </c>
-      <c r="D835" t="s">
+      <c r="D837" t="s">
         <v>268</v>
       </c>
-      <c r="E835">
+      <c r="E837">
         <v>0.384945957779212</v>
       </c>
-      <c r="F835">
-        <v>1</v>
-      </c>
-      <c r="G835">
+      <c r="F837">
+        <v>1</v>
+      </c>
+      <c r="G837">
         <v>0.005287336976057171</v>
       </c>
-      <c r="H835">
+      <c r="H837">
         <v>0.004955054042220787</v>
       </c>
-      <c r="I835">
+      <c r="I837">
         <v>0.2722829338363821</v>
       </c>
-      <c r="J835">
+      <c r="J837">
         <v>0.5123439556548852</v>
       </c>
-      <c r="K835">
+      <c r="K837">
         <v>5.05</v>
       </c>
-      <c r="L835">
+      <c r="L837">
         <v>2.7</v>
       </c>
-      <c r="M835">
+      <c r="M837">
         <v>4.46</v>
       </c>
-      <c r="N835">
+      <c r="N837">
         <v>2.67</v>
       </c>
-      <c r="O835">
-        <v>1</v>
-      </c>
-      <c r="P835" t="s">
+      <c r="O837">
+        <v>1</v>
+      </c>
+      <c r="P837" t="s">
         <v>606</v>
       </c>
     </row>

--- a/s60_signal/position-1398-1288-800.xlsx
+++ b/s60_signal/position-1398-1288-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="609">
   <si>
     <t>trade_time</t>
   </si>
@@ -823,6 +823,9 @@
     <t>2021-07-13</t>
   </si>
   <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
     <t>2011-05-05</t>
   </si>
   <si>
@@ -1835,6 +1838,9 @@
   </si>
   <si>
     <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P837"/>
+  <dimension ref="A1:P838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2292,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2342,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2392,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2442,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2492,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2542,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2642,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2692,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2742,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2792,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2842,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2892,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2942,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2992,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3042,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3092,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3142,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -3192,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -3242,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -3292,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -3342,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -3392,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -3442,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -3492,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3542,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3592,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3642,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3692,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3742,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3792,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3842,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3892,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3942,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3992,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -4042,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -4092,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -4142,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -4192,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -4242,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -4292,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -4342,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -4392,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -4442,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -4492,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -4542,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4592,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4642,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4692,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4742,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4792,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4842,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4892,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -5042,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="P57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -5092,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -5142,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -5192,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -5242,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="P61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -5292,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -5392,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="P64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -5442,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="P65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5492,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5542,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -5592,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -5642,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5692,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5742,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5792,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5842,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="P73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5892,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5942,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5992,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -6042,7 +6048,7 @@
         <v>1</v>
       </c>
       <c r="P77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -6092,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="P78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -6142,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -6192,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -6242,7 +6248,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -6292,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -6342,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6392,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6442,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6492,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="P86" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6742,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="P91" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6792,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6842,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6892,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="P94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6942,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6992,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="P96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -7042,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -7092,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -7142,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="P99" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -7192,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="P100" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -7221,7 +7227,7 @@
         <v>3.77</v>
       </c>
       <c r="P101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7271,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="P102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7321,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="P103" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7371,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7421,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="P105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7450,7 +7456,7 @@
         <v>3.75</v>
       </c>
       <c r="P106" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -7500,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7550,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -7600,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="P109" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7650,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="P110" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7679,7 +7685,7 @@
         <v>3.68</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7729,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7779,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="P113" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7829,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="P114" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7879,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7929,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7979,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="P117" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8029,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="P118" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8079,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="P119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8129,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="P120" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8179,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="P121" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8229,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="P122" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -8279,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="P123" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -8329,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="P124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -8379,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="P125" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -8429,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -8479,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="P127" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -8529,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -8579,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -8629,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8679,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="P131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8729,7 +8735,7 @@
         <v>1</v>
       </c>
       <c r="P132" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8779,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="P133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8829,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="P134" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8879,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="P135" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8929,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8979,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="P137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -9029,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="P138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -9079,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="P139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -9129,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="P140" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -9179,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="P141" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -9229,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="P142" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -9279,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -9329,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -9379,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="P145" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -9408,7 +9414,7 @@
         <v>2.84</v>
       </c>
       <c r="P146" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -9458,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="P147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -9508,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -9558,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="P149" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -9608,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9658,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9708,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9758,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="P153" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9858,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9908,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9958,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -10008,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -10058,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -10108,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -10137,7 +10143,7 @@
         <v>2.78</v>
       </c>
       <c r="P161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -10187,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -10237,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -10287,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="P164" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -10337,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -10387,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="P166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -10437,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P167" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -10487,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="P168" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -10537,7 +10543,7 @@
         <v>1</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -10587,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10637,7 +10643,7 @@
         <v>1</v>
       </c>
       <c r="P171" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10687,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="P172" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10737,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10787,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="P174" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10837,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="P175" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10887,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="P176" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10937,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10987,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -11037,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="P179" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -11087,7 +11093,7 @@
         <v>1</v>
       </c>
       <c r="P180" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -11137,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="P181" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -11187,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="P182" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -11237,7 +11243,7 @@
         <v>1</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -11287,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="P184" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -11337,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="P185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -11387,7 +11393,7 @@
         <v>1</v>
       </c>
       <c r="P186" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -11437,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -11487,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="P188" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -11537,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="P189" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -11587,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11637,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="P191" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11687,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11737,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="P193" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11787,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11837,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11987,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -12037,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="P199" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -12187,7 +12193,7 @@
         <v>1</v>
       </c>
       <c r="P202" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -12237,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="P203" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -12716,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12766,7 +12772,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12816,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12866,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12895,7 +12901,7 @@
         <v>3.29</v>
       </c>
       <c r="P217" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12924,7 +12930,7 @@
         <v>3.29</v>
       </c>
       <c r="P218" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12974,7 +12980,7 @@
         <v>1</v>
       </c>
       <c r="P219" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -13024,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -13074,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="P221" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -13124,7 +13130,7 @@
         <v>1</v>
       </c>
       <c r="P222" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -13174,7 +13180,7 @@
         <v>0</v>
       </c>
       <c r="P223" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -13224,7 +13230,7 @@
         <v>1</v>
       </c>
       <c r="P224" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -13274,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -13324,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="P226" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -13374,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="P227" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -13424,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="P228" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -13474,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="P229" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -13524,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="P230" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13574,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="P231" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13624,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="P232" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13674,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="P233" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13724,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13774,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -13824,7 +13830,7 @@
         <v>1</v>
       </c>
       <c r="P236" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="237" spans="1:16">
@@ -13874,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="P237" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="238" spans="1:16">
@@ -13924,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="P238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="1:16">
@@ -13974,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="P239" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -14024,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="P240" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="241" spans="1:16">
@@ -14074,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="242" spans="1:16">
@@ -14124,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243" spans="1:16">
@@ -14174,7 +14180,7 @@
         <v>0</v>
       </c>
       <c r="P243" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="244" spans="1:16">
@@ -14224,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="P244" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="245" spans="1:16">
@@ -14274,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="P245" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="246" spans="1:16">
@@ -14324,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="P246" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="247" spans="1:16">
@@ -14353,7 +14359,7 @@
         <v>4.22</v>
       </c>
       <c r="P247" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="248" spans="1:16">
@@ -14403,7 +14409,7 @@
         <v>1</v>
       </c>
       <c r="P248" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="249" spans="1:16">
@@ -14453,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="P249" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:16">
@@ -14503,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="P250" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="251" spans="1:16">
@@ -14553,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="P251" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="252" spans="1:16">
@@ -14603,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="P252" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -14653,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="P253" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="254" spans="1:16">
@@ -14703,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="P254" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -14753,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="P255" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -14782,7 +14788,7 @@
         <v>4.35</v>
       </c>
       <c r="P256" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="257" spans="1:16">
@@ -14811,7 +14817,7 @@
         <v>4.24</v>
       </c>
       <c r="P257" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="258" spans="1:16">
@@ -14861,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="P258" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="259" spans="1:16">
@@ -14911,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="P259" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -14961,7 +14967,7 @@
         <v>0</v>
       </c>
       <c r="P260" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -15011,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="P261" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -15061,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="P262" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -15111,7 +15117,7 @@
         <v>0</v>
       </c>
       <c r="P263" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -15161,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="P264" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -15211,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="P265" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="266" spans="1:16">
@@ -15261,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="P266" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="267" spans="1:16">
@@ -15311,7 +15317,7 @@
         <v>0</v>
       </c>
       <c r="P267" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="268" spans="1:16">
@@ -15361,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="P268" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="269" spans="1:16">
@@ -15411,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="P269" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="270" spans="1:16">
@@ -15461,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="P270" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:16">
@@ -15511,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="P271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:16">
@@ -15561,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="P272" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:16">
@@ -15611,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="P273" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="274" spans="1:16">
@@ -15661,7 +15667,7 @@
         <v>0</v>
       </c>
       <c r="P274" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15711,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15761,7 +15767,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15811,7 +15817,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15861,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15911,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="P279" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="280" spans="1:16">
@@ -15961,7 +15967,7 @@
         <v>1</v>
       </c>
       <c r="P280" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:16">
@@ -16311,7 +16317,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="288" spans="1:16">
@@ -16361,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="P288" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="289" spans="1:16">
@@ -16411,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="P289" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="290" spans="1:16">
@@ -16461,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="P290" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="291" spans="1:16">
@@ -16511,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="P291" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="292" spans="1:16">
@@ -16561,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="P292" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="293" spans="1:16">
@@ -16611,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="P293" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="294" spans="1:16">
@@ -16661,7 +16667,7 @@
         <v>1</v>
       </c>
       <c r="P294" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="295" spans="1:16">
@@ -16711,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="P295" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="296" spans="1:16">
@@ -16761,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="P296" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="297" spans="1:16">
@@ -16811,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="P297" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="298" spans="1:16">
@@ -16861,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="P298" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="299" spans="1:16">
@@ -17511,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="P311" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="312" spans="1:16">
@@ -17561,7 +17567,7 @@
         <v>1</v>
       </c>
       <c r="P312" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="1:16">
@@ -17611,7 +17617,7 @@
         <v>1</v>
       </c>
       <c r="P313" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="314" spans="1:16">
@@ -17661,7 +17667,7 @@
         <v>1</v>
       </c>
       <c r="P314" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="315" spans="1:16">
@@ -17711,7 +17717,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17761,7 +17767,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17811,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17861,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17911,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="P319" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="320" spans="1:16">
@@ -17961,7 +17967,7 @@
         <v>1</v>
       </c>
       <c r="P320" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="321" spans="1:16">
@@ -18011,7 +18017,7 @@
         <v>1</v>
       </c>
       <c r="P321" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322" spans="1:16">
@@ -18061,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="P322" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="323" spans="1:16">
@@ -18111,7 +18117,7 @@
         <v>1</v>
       </c>
       <c r="P323" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="324" spans="1:16">
@@ -18161,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="P324" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="325" spans="1:16">
@@ -18211,7 +18217,7 @@
         <v>1</v>
       </c>
       <c r="P325" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="326" spans="1:16">
@@ -18261,7 +18267,7 @@
         <v>1</v>
       </c>
       <c r="P326" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="327" spans="1:16">
@@ -18311,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="P327" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="328" spans="1:16">
@@ -18361,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="P328" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="329" spans="1:16">
@@ -18411,7 +18417,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18461,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18511,7 +18517,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18561,7 +18567,7 @@
         <v>0</v>
       </c>
       <c r="P332" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18611,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="P333" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18661,7 +18667,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18711,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="336" spans="1:16">
@@ -18761,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="337" spans="1:16">
@@ -18811,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="P337" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -18861,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="P338" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -18911,7 +18917,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="340" spans="1:16">
@@ -18961,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:16">
@@ -19011,7 +19017,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="342" spans="1:16">
@@ -19061,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="P342" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="343" spans="1:16">
@@ -19111,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="P343" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344" spans="1:16">
@@ -19161,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="P344" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="345" spans="1:16">
@@ -19211,7 +19217,7 @@
         <v>1</v>
       </c>
       <c r="P345" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="346" spans="1:16">
@@ -19261,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="P346" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="347" spans="1:16">
@@ -19311,7 +19317,7 @@
         <v>1</v>
       </c>
       <c r="P347" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="348" spans="1:16">
@@ -19361,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="P348" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:16">
@@ -19411,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="P349" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="350" spans="1:16">
@@ -19461,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="P350" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:16">
@@ -19761,7 +19767,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="357" spans="1:16">
@@ -19811,7 +19817,7 @@
         <v>1</v>
       </c>
       <c r="P357" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="358" spans="1:16">
@@ -19861,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="P358" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="359" spans="1:16">
@@ -19911,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="P359" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19961,7 +19967,7 @@
         <v>0</v>
       </c>
       <c r="P360" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -20011,7 +20017,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -20061,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -20111,7 +20117,7 @@
         <v>0</v>
       </c>
       <c r="P363" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20161,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="P364" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="365" spans="1:16">
@@ -20211,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="P365" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="366" spans="1:16">
@@ -20261,7 +20267,7 @@
         <v>1</v>
       </c>
       <c r="P366" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="367" spans="1:16">
@@ -20311,7 +20317,7 @@
         <v>1</v>
       </c>
       <c r="P367" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="368" spans="1:16">
@@ -20361,7 +20367,7 @@
         <v>0</v>
       </c>
       <c r="P368" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="369" spans="1:16">
@@ -20411,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="P369" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="370" spans="1:16">
@@ -20461,7 +20467,7 @@
         <v>1</v>
       </c>
       <c r="P370" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="371" spans="1:16">
@@ -20511,7 +20517,7 @@
         <v>1</v>
       </c>
       <c r="P371" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="372" spans="1:16">
@@ -20561,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="P372" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="373" spans="1:16">
@@ -20611,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="P373" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="374" spans="1:16">
@@ -20661,7 +20667,7 @@
         <v>1</v>
       </c>
       <c r="P374" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="375" spans="1:16">
@@ -20711,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="P375" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="376" spans="1:16">
@@ -20761,7 +20767,7 @@
         <v>0</v>
       </c>
       <c r="P376" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="377" spans="1:16">
@@ -20811,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="P377" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -21011,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -21061,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="P382" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -21111,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="P383" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="384" spans="1:16">
@@ -21261,7 +21267,7 @@
         <v>0</v>
       </c>
       <c r="P386" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:16">
@@ -21311,7 +21317,7 @@
         <v>0</v>
       </c>
       <c r="P387" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="388" spans="1:16">
@@ -21361,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="P388" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="389" spans="1:16">
@@ -21411,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="P389" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="390" spans="1:16">
@@ -21440,7 +21446,7 @@
         <v>3.81</v>
       </c>
       <c r="P390" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="391" spans="1:16">
@@ -21469,7 +21475,7 @@
         <v>3.89</v>
       </c>
       <c r="P391" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" spans="1:16">
@@ -21519,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="P392" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" spans="1:16">
@@ -21569,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="P393" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -21619,7 +21625,7 @@
         <v>0</v>
       </c>
       <c r="P394" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:16">
@@ -21669,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="P395" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:16">
@@ -21719,7 +21725,7 @@
         <v>1</v>
       </c>
       <c r="P396" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:16">
@@ -21769,7 +21775,7 @@
         <v>1</v>
       </c>
       <c r="P397" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="398" spans="1:16">
@@ -21819,7 +21825,7 @@
         <v>1</v>
       </c>
       <c r="P398" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:16">
@@ -21869,7 +21875,7 @@
         <v>1</v>
       </c>
       <c r="P399" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="400" spans="1:16">
@@ -21969,7 +21975,7 @@
         <v>1</v>
       </c>
       <c r="P401" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="402" spans="1:16">
@@ -22119,7 +22125,7 @@
         <v>1</v>
       </c>
       <c r="P404" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="405" spans="1:16">
@@ -22169,7 +22175,7 @@
         <v>1</v>
       </c>
       <c r="P405" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="406" spans="1:16">
@@ -22219,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="P406" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -22319,7 +22325,7 @@
         <v>0</v>
       </c>
       <c r="P408" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="409" spans="1:16">
@@ -22369,7 +22375,7 @@
         <v>0</v>
       </c>
       <c r="P409" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="410" spans="1:16">
@@ -22398,7 +22404,7 @@
         <v>4.29</v>
       </c>
       <c r="P410" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="411" spans="1:16">
@@ -22427,7 +22433,7 @@
         <v>4.23</v>
       </c>
       <c r="P411" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -22477,7 +22483,7 @@
         <v>0</v>
       </c>
       <c r="P412" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22527,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="P413" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22577,7 +22583,7 @@
         <v>0</v>
       </c>
       <c r="P414" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22627,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="P415" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22677,7 +22683,7 @@
         <v>0</v>
       </c>
       <c r="P416" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22727,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="P417" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="418" spans="1:16">
@@ -22777,7 +22783,7 @@
         <v>0</v>
       </c>
       <c r="P418" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419" spans="1:16">
@@ -22827,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="P419" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="420" spans="1:16">
@@ -22877,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="P420" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="421" spans="1:16">
@@ -22927,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="P421" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:16">
@@ -22977,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P422" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:16">
@@ -23027,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="P423" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:16">
@@ -23077,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="P424" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="425" spans="1:16">
@@ -23127,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="P425" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:16">
@@ -23177,7 +23183,7 @@
         <v>0</v>
       </c>
       <c r="P426" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:16">
@@ -23227,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="P427" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="428" spans="1:16">
@@ -23277,7 +23283,7 @@
         <v>0</v>
       </c>
       <c r="P428" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="429" spans="1:16">
@@ -23327,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="P429" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="430" spans="1:16">
@@ -23356,7 +23362,7 @@
         <v>4.44</v>
       </c>
       <c r="P430" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="431" spans="1:16">
@@ -23385,7 +23391,7 @@
         <v>4.47</v>
       </c>
       <c r="P431" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="432" spans="1:16">
@@ -23414,7 +23420,7 @@
         <v>4.42</v>
       </c>
       <c r="P432" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -23443,7 +23449,7 @@
         <v>4.22</v>
       </c>
       <c r="P433" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -23472,7 +23478,7 @@
         <v>4.14</v>
       </c>
       <c r="P434" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -23522,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="P435" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="436" spans="1:16">
@@ -23572,7 +23578,7 @@
         <v>0</v>
       </c>
       <c r="P436" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="437" spans="1:16">
@@ -23622,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="P437" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="438" spans="1:16">
@@ -23672,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="P438" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23722,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="P439" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23772,7 +23778,7 @@
         <v>0</v>
       </c>
       <c r="P440" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23822,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="P441" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23872,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="P442" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -23922,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="P443" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="444" spans="1:16">
@@ -23972,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="P444" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="445" spans="1:16">
@@ -24022,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="P445" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="446" spans="1:16">
@@ -24072,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="P446" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="447" spans="1:16">
@@ -24122,7 +24128,7 @@
         <v>0</v>
       </c>
       <c r="P447" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="448" spans="1:16">
@@ -24172,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="P448" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="449" spans="1:16">
@@ -24222,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="P449" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="450" spans="1:16">
@@ -24272,7 +24278,7 @@
         <v>0</v>
       </c>
       <c r="P450" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="451" spans="1:16">
@@ -24322,7 +24328,7 @@
         <v>0</v>
       </c>
       <c r="P451" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="452" spans="1:16">
@@ -24372,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="P452" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="453" spans="1:16">
@@ -24422,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="P453" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="454" spans="1:16">
@@ -24472,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="P454" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="455" spans="1:16">
@@ -24522,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="P455" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="456" spans="1:16">
@@ -24572,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="P456" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="457" spans="1:16">
@@ -24622,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="P457" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="458" spans="1:16">
@@ -24672,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="P458" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="459" spans="1:16">
@@ -24722,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="P459" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="460" spans="1:16">
@@ -24772,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="P460" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="461" spans="1:16">
@@ -24822,7 +24828,7 @@
         <v>0</v>
       </c>
       <c r="P461" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="462" spans="1:16">
@@ -24872,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="P462" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="463" spans="1:16">
@@ -24922,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="P463" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="464" spans="1:16">
@@ -24972,7 +24978,7 @@
         <v>0</v>
       </c>
       <c r="P464" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -25022,7 +25028,7 @@
         <v>0</v>
       </c>
       <c r="P465" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -25072,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="P466" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25122,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="P467" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25172,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="P468" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25222,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="P469" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="470" spans="1:16">
@@ -25272,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="P470" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="471" spans="1:16">
@@ -25322,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="P471" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="472" spans="1:16">
@@ -25372,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="P472" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="473" spans="1:16">
@@ -25422,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="P473" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="474" spans="1:16">
@@ -25472,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="P474" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="475" spans="1:16">
@@ -25522,7 +25528,7 @@
         <v>0</v>
       </c>
       <c r="P475" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25572,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="P476" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25622,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="P477" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25672,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="P478" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25722,7 +25728,7 @@
         <v>0</v>
       </c>
       <c r="P479" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25772,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="P480" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25822,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="P481" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25872,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="P482" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25922,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="P483" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -25972,7 +25978,7 @@
         <v>0</v>
       </c>
       <c r="P484" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26022,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="P485" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26072,7 +26078,7 @@
         <v>0</v>
       </c>
       <c r="P486" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26122,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="P487" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="488" spans="1:16">
@@ -26172,7 +26178,7 @@
         <v>0</v>
       </c>
       <c r="P488" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="489" spans="1:16">
@@ -26222,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="P489" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="490" spans="1:16">
@@ -26272,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="P490" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="491" spans="1:16">
@@ -26322,7 +26328,7 @@
         <v>0</v>
       </c>
       <c r="P491" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="492" spans="1:16">
@@ -26372,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="P492" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="493" spans="1:16">
@@ -26422,7 +26428,7 @@
         <v>0</v>
       </c>
       <c r="P493" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="494" spans="1:16">
@@ -26472,7 +26478,7 @@
         <v>0</v>
       </c>
       <c r="P494" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26522,7 +26528,7 @@
         <v>0</v>
       </c>
       <c r="P495" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26572,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="P496" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26622,7 +26628,7 @@
         <v>0</v>
       </c>
       <c r="P497" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26672,7 +26678,7 @@
         <v>0</v>
       </c>
       <c r="P498" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26722,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="P499" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="500" spans="1:16">
@@ -26772,7 +26778,7 @@
         <v>0</v>
       </c>
       <c r="P500" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="501" spans="1:16">
@@ -26822,7 +26828,7 @@
         <v>0</v>
       </c>
       <c r="P501" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="502" spans="1:16">
@@ -26872,7 +26878,7 @@
         <v>0</v>
       </c>
       <c r="P502" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -26922,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="P503" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -26972,7 +26978,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27022,7 +27028,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27072,7 +27078,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27122,7 +27128,7 @@
         <v>1</v>
       </c>
       <c r="P507" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -27172,7 +27178,7 @@
         <v>1</v>
       </c>
       <c r="P508" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -27222,7 +27228,7 @@
         <v>1</v>
       </c>
       <c r="P509" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -27272,7 +27278,7 @@
         <v>1</v>
       </c>
       <c r="P510" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -27322,7 +27328,7 @@
         <v>1</v>
       </c>
       <c r="P511" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -27422,7 +27428,7 @@
         <v>1</v>
       </c>
       <c r="P513" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -27472,7 +27478,7 @@
         <v>1</v>
       </c>
       <c r="P514" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -27522,7 +27528,7 @@
         <v>1</v>
       </c>
       <c r="P515" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -27572,7 +27578,7 @@
         <v>1</v>
       </c>
       <c r="P516" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -27622,7 +27628,7 @@
         <v>1</v>
       </c>
       <c r="P517" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -27672,7 +27678,7 @@
         <v>1</v>
       </c>
       <c r="P518" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -27722,7 +27728,7 @@
         <v>1</v>
       </c>
       <c r="P519" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -27772,7 +27778,7 @@
         <v>1</v>
       </c>
       <c r="P520" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -27822,7 +27828,7 @@
         <v>1</v>
       </c>
       <c r="P521" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -27872,7 +27878,7 @@
         <v>1</v>
       </c>
       <c r="P522" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -27922,7 +27928,7 @@
         <v>1</v>
       </c>
       <c r="P523" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -27972,7 +27978,7 @@
         <v>1</v>
       </c>
       <c r="P524" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -28022,7 +28028,7 @@
         <v>1</v>
       </c>
       <c r="P525" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -28072,7 +28078,7 @@
         <v>1</v>
       </c>
       <c r="P526" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -28122,7 +28128,7 @@
         <v>1</v>
       </c>
       <c r="P527" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -29572,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="P556" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -29622,7 +29628,7 @@
         <v>0</v>
       </c>
       <c r="P557" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -29672,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="P558" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -29722,7 +29728,7 @@
         <v>0</v>
       </c>
       <c r="P559" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -29772,7 +29778,7 @@
         <v>1</v>
       </c>
       <c r="P560" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -29822,7 +29828,7 @@
         <v>1</v>
       </c>
       <c r="P561" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -29872,7 +29878,7 @@
         <v>1</v>
       </c>
       <c r="P562" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -29922,7 +29928,7 @@
         <v>1</v>
       </c>
       <c r="P563" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -29972,7 +29978,7 @@
         <v>1</v>
       </c>
       <c r="P564" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -30022,7 +30028,7 @@
         <v>1</v>
       </c>
       <c r="P565" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -30072,7 +30078,7 @@
         <v>1</v>
       </c>
       <c r="P566" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -30122,7 +30128,7 @@
         <v>1</v>
       </c>
       <c r="P567" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -30151,7 +30157,7 @@
         <v>3.63</v>
       </c>
       <c r="P568" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -30201,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="P569" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -30230,7 +30236,7 @@
         <v>3.7</v>
       </c>
       <c r="P570" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -30259,7 +30265,7 @@
         <v>3.7</v>
       </c>
       <c r="P571" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -30309,7 +30315,7 @@
         <v>1</v>
       </c>
       <c r="P572" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -30359,7 +30365,7 @@
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -30409,7 +30415,7 @@
         <v>1</v>
       </c>
       <c r="P574" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -30459,7 +30465,7 @@
         <v>1</v>
       </c>
       <c r="P575" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -30509,7 +30515,7 @@
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -30559,7 +30565,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30609,7 +30615,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30659,7 +30665,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30709,7 +30715,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30759,7 +30765,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30809,7 +30815,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -30859,7 +30865,7 @@
         <v>1</v>
       </c>
       <c r="P583" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -30909,7 +30915,7 @@
         <v>1</v>
       </c>
       <c r="P584" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -30959,7 +30965,7 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -31009,7 +31015,7 @@
         <v>1</v>
       </c>
       <c r="P586" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -31059,7 +31065,7 @@
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -31159,7 +31165,7 @@
         <v>1</v>
       </c>
       <c r="P589" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -31209,7 +31215,7 @@
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -31259,7 +31265,7 @@
         <v>1</v>
       </c>
       <c r="P591" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -31309,7 +31315,7 @@
         <v>1</v>
       </c>
       <c r="P592" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -31359,7 +31365,7 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -31409,7 +31415,7 @@
         <v>1</v>
       </c>
       <c r="P594" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -31459,7 +31465,7 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -31509,7 +31515,7 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -31559,7 +31565,7 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -31609,7 +31615,7 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -31659,7 +31665,7 @@
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -31709,7 +31715,7 @@
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -31859,7 +31865,7 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -31909,7 +31915,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -31959,7 +31965,7 @@
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -32009,7 +32015,7 @@
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -32059,7 +32065,7 @@
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -32109,7 +32115,7 @@
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -32138,7 +32144,7 @@
         <v>3.4</v>
       </c>
       <c r="P609" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -32188,7 +32194,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -32238,7 +32244,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32288,7 +32294,7 @@
         <v>0</v>
       </c>
       <c r="P612" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32338,7 +32344,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32388,7 +32394,7 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -32438,7 +32444,7 @@
         <v>1</v>
       </c>
       <c r="P615" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -32488,7 +32494,7 @@
         <v>1</v>
       </c>
       <c r="P616" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -32538,7 +32544,7 @@
         <v>1</v>
       </c>
       <c r="P617" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -32588,7 +32594,7 @@
         <v>1</v>
       </c>
       <c r="P618" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -32638,7 +32644,7 @@
         <v>1</v>
       </c>
       <c r="P619" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -32688,7 +32694,7 @@
         <v>1</v>
       </c>
       <c r="P620" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -32738,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="P621" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -32788,7 +32794,7 @@
         <v>1</v>
       </c>
       <c r="P622" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -32838,7 +32844,7 @@
         <v>1</v>
       </c>
       <c r="P623" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -32888,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="P624" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -32938,7 +32944,7 @@
         <v>1</v>
       </c>
       <c r="P625" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -32988,7 +32994,7 @@
         <v>1</v>
       </c>
       <c r="P626" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -33038,7 +33044,7 @@
         <v>1</v>
       </c>
       <c r="P627" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -33088,7 +33094,7 @@
         <v>1</v>
       </c>
       <c r="P628" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -33138,7 +33144,7 @@
         <v>1</v>
       </c>
       <c r="P629" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -33188,7 +33194,7 @@
         <v>1</v>
       </c>
       <c r="P630" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -33238,7 +33244,7 @@
         <v>1</v>
       </c>
       <c r="P631" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -33288,7 +33294,7 @@
         <v>1</v>
       </c>
       <c r="P632" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -33338,7 +33344,7 @@
         <v>1</v>
       </c>
       <c r="P633" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -33388,7 +33394,7 @@
         <v>1</v>
       </c>
       <c r="P634" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -33438,7 +33444,7 @@
         <v>1</v>
       </c>
       <c r="P635" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -33488,7 +33494,7 @@
         <v>1</v>
       </c>
       <c r="P636" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -33688,7 +33694,7 @@
         <v>1</v>
       </c>
       <c r="P640" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -33738,7 +33744,7 @@
         <v>1</v>
       </c>
       <c r="P641" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -33788,7 +33794,7 @@
         <v>1</v>
       </c>
       <c r="P642" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -33988,7 +33994,7 @@
         <v>1</v>
       </c>
       <c r="P646" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -34038,7 +34044,7 @@
         <v>1</v>
       </c>
       <c r="P647" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -34088,7 +34094,7 @@
         <v>1</v>
       </c>
       <c r="P648" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -34138,7 +34144,7 @@
         <v>1</v>
       </c>
       <c r="P649" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="650" spans="1:16">
@@ -34188,7 +34194,7 @@
         <v>1</v>
       </c>
       <c r="P650" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="651" spans="1:16">
@@ -34238,7 +34244,7 @@
         <v>1</v>
       </c>
       <c r="P651" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="652" spans="1:16">
@@ -34288,7 +34294,7 @@
         <v>1</v>
       </c>
       <c r="P652" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="653" spans="1:16">
@@ -34338,7 +34344,7 @@
         <v>1</v>
       </c>
       <c r="P653" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="654" spans="1:16">
@@ -34388,7 +34394,7 @@
         <v>1</v>
       </c>
       <c r="P654" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="655" spans="1:16">
@@ -34417,7 +34423,7 @@
         <v>3.69</v>
       </c>
       <c r="P655" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -34467,7 +34473,7 @@
         <v>1</v>
       </c>
       <c r="P656" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -34517,7 +34523,7 @@
         <v>1</v>
       </c>
       <c r="P657" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -34567,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="P658" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -34617,7 +34623,7 @@
         <v>0</v>
       </c>
       <c r="P659" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -34667,7 +34673,7 @@
         <v>1</v>
       </c>
       <c r="P660" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -34717,7 +34723,7 @@
         <v>1</v>
       </c>
       <c r="P661" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -34767,7 +34773,7 @@
         <v>1</v>
       </c>
       <c r="P662" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -34817,7 +34823,7 @@
         <v>0</v>
       </c>
       <c r="P663" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -34867,7 +34873,7 @@
         <v>1</v>
       </c>
       <c r="P664" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -34917,7 +34923,7 @@
         <v>1</v>
       </c>
       <c r="P665" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -34967,7 +34973,7 @@
         <v>1</v>
       </c>
       <c r="P666" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -34996,7 +35002,7 @@
         <v>3.69</v>
       </c>
       <c r="P667" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -35025,7 +35031,7 @@
         <v>3.61</v>
       </c>
       <c r="P668" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -35075,7 +35081,7 @@
         <v>1</v>
       </c>
       <c r="P669" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -35125,7 +35131,7 @@
         <v>1</v>
       </c>
       <c r="P670" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -35175,7 +35181,7 @@
         <v>1</v>
       </c>
       <c r="P671" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -35225,7 +35231,7 @@
         <v>0</v>
       </c>
       <c r="P672" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -35275,7 +35281,7 @@
         <v>0</v>
       </c>
       <c r="P673" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -35325,7 +35331,7 @@
         <v>1</v>
       </c>
       <c r="P674" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -35375,7 +35381,7 @@
         <v>1</v>
       </c>
       <c r="P675" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -35425,7 +35431,7 @@
         <v>1</v>
       </c>
       <c r="P676" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -35475,7 +35481,7 @@
         <v>0</v>
       </c>
       <c r="P677" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -35525,7 +35531,7 @@
         <v>0</v>
       </c>
       <c r="P678" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -35575,7 +35581,7 @@
         <v>1</v>
       </c>
       <c r="P679" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -35625,7 +35631,7 @@
         <v>1</v>
       </c>
       <c r="P680" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -35675,7 +35681,7 @@
         <v>1</v>
       </c>
       <c r="P681" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -35725,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="P682" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -35775,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="P683" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -35825,7 +35831,7 @@
         <v>1</v>
       </c>
       <c r="P684" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -35875,7 +35881,7 @@
         <v>1</v>
       </c>
       <c r="P685" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -35925,7 +35931,7 @@
         <v>1</v>
       </c>
       <c r="P686" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -35975,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="P687" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -36025,7 +36031,7 @@
         <v>0</v>
       </c>
       <c r="P688" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -36075,7 +36081,7 @@
         <v>1</v>
       </c>
       <c r="P689" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -36125,7 +36131,7 @@
         <v>1</v>
       </c>
       <c r="P690" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -36175,7 +36181,7 @@
         <v>1</v>
       </c>
       <c r="P691" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -36225,7 +36231,7 @@
         <v>0</v>
       </c>
       <c r="P692" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -36275,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="P693" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -36325,7 +36331,7 @@
         <v>1</v>
       </c>
       <c r="P694" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -36375,7 +36381,7 @@
         <v>1</v>
       </c>
       <c r="P695" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -36425,7 +36431,7 @@
         <v>1</v>
       </c>
       <c r="P696" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -36475,7 +36481,7 @@
         <v>0</v>
       </c>
       <c r="P697" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -36525,7 +36531,7 @@
         <v>0</v>
       </c>
       <c r="P698" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -36575,7 +36581,7 @@
         <v>1</v>
       </c>
       <c r="P699" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -36625,7 +36631,7 @@
         <v>1</v>
       </c>
       <c r="P700" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -36675,7 +36681,7 @@
         <v>1</v>
       </c>
       <c r="P701" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -36725,7 +36731,7 @@
         <v>0</v>
       </c>
       <c r="P702" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -36775,7 +36781,7 @@
         <v>0</v>
       </c>
       <c r="P703" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -36825,7 +36831,7 @@
         <v>1</v>
       </c>
       <c r="P704" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -36875,7 +36881,7 @@
         <v>1</v>
       </c>
       <c r="P705" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -36925,7 +36931,7 @@
         <v>1</v>
       </c>
       <c r="P706" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -36975,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="P707" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -37025,7 +37031,7 @@
         <v>0</v>
       </c>
       <c r="P708" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -37075,7 +37081,7 @@
         <v>1</v>
       </c>
       <c r="P709" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -37125,7 +37131,7 @@
         <v>1</v>
       </c>
       <c r="P710" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -37175,7 +37181,7 @@
         <v>1</v>
       </c>
       <c r="P711" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -37225,7 +37231,7 @@
         <v>0</v>
       </c>
       <c r="P712" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -37275,7 +37281,7 @@
         <v>0</v>
       </c>
       <c r="P713" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="714" spans="1:16">
@@ -37325,7 +37331,7 @@
         <v>1</v>
       </c>
       <c r="P714" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -37375,7 +37381,7 @@
         <v>1</v>
       </c>
       <c r="P715" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -37425,7 +37431,7 @@
         <v>1</v>
       </c>
       <c r="P716" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -37475,7 +37481,7 @@
         <v>0</v>
       </c>
       <c r="P717" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -37525,7 +37531,7 @@
         <v>0</v>
       </c>
       <c r="P718" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -37575,7 +37581,7 @@
         <v>1</v>
       </c>
       <c r="P719" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -37625,7 +37631,7 @@
         <v>1</v>
       </c>
       <c r="P720" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -37675,7 +37681,7 @@
         <v>1</v>
       </c>
       <c r="P721" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -37725,7 +37731,7 @@
         <v>0</v>
       </c>
       <c r="P722" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -37775,7 +37781,7 @@
         <v>0</v>
       </c>
       <c r="P723" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -38075,7 +38081,7 @@
         <v>1</v>
       </c>
       <c r="P729" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -38125,7 +38131,7 @@
         <v>1</v>
       </c>
       <c r="P730" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -38175,7 +38181,7 @@
         <v>1</v>
       </c>
       <c r="P731" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -38225,7 +38231,7 @@
         <v>1</v>
       </c>
       <c r="P732" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -38275,7 +38281,7 @@
         <v>1</v>
       </c>
       <c r="P733" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -38325,7 +38331,7 @@
         <v>1</v>
       </c>
       <c r="P734" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -38375,7 +38381,7 @@
         <v>1</v>
       </c>
       <c r="P735" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -38425,7 +38431,7 @@
         <v>1</v>
       </c>
       <c r="P736" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -38575,7 +38581,7 @@
         <v>1</v>
       </c>
       <c r="P739" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -38625,7 +38631,7 @@
         <v>1</v>
       </c>
       <c r="P740" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -38675,7 +38681,7 @@
         <v>1</v>
       </c>
       <c r="P741" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="742" spans="1:16">
@@ -38725,7 +38731,7 @@
         <v>1</v>
       </c>
       <c r="P742" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="743" spans="1:16">
@@ -38904,7 +38910,7 @@
         <v>0</v>
       </c>
       <c r="P746" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -39004,7 +39010,7 @@
         <v>0</v>
       </c>
       <c r="P748" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -39054,7 +39060,7 @@
         <v>0</v>
       </c>
       <c r="P749" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -39104,7 +39110,7 @@
         <v>0</v>
       </c>
       <c r="P750" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -39154,7 +39160,7 @@
         <v>0</v>
       </c>
       <c r="P751" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -39204,7 +39210,7 @@
         <v>0</v>
       </c>
       <c r="P752" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -39254,7 +39260,7 @@
         <v>0</v>
       </c>
       <c r="P753" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -39304,7 +39310,7 @@
         <v>0</v>
       </c>
       <c r="P754" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -39354,7 +39360,7 @@
         <v>0</v>
       </c>
       <c r="P755" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -39404,7 +39410,7 @@
         <v>0</v>
       </c>
       <c r="P756" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -39454,7 +39460,7 @@
         <v>0</v>
       </c>
       <c r="P757" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -39504,7 +39510,7 @@
         <v>0</v>
       </c>
       <c r="P758" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -39554,7 +39560,7 @@
         <v>0</v>
       </c>
       <c r="P759" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -39604,7 +39610,7 @@
         <v>0</v>
       </c>
       <c r="P760" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -39654,7 +39660,7 @@
         <v>0</v>
       </c>
       <c r="P761" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -39704,7 +39710,7 @@
         <v>0</v>
       </c>
       <c r="P762" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -39754,7 +39760,7 @@
         <v>0</v>
       </c>
       <c r="P763" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -39804,7 +39810,7 @@
         <v>0</v>
       </c>
       <c r="P764" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -39904,7 +39910,7 @@
         <v>0</v>
       </c>
       <c r="P766" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -39954,7 +39960,7 @@
         <v>0</v>
       </c>
       <c r="P767" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -40004,7 +40010,7 @@
         <v>1</v>
       </c>
       <c r="P768" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -40054,7 +40060,7 @@
         <v>1</v>
       </c>
       <c r="P769" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -40104,7 +40110,7 @@
         <v>1</v>
       </c>
       <c r="P770" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -40154,7 +40160,7 @@
         <v>1</v>
       </c>
       <c r="P771" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -40204,7 +40210,7 @@
         <v>1</v>
       </c>
       <c r="P772" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -40254,7 +40260,7 @@
         <v>1</v>
       </c>
       <c r="P773" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -40304,7 +40310,7 @@
         <v>1</v>
       </c>
       <c r="P774" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -40354,7 +40360,7 @@
         <v>1</v>
       </c>
       <c r="P775" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="776" spans="1:16">
@@ -40404,7 +40410,7 @@
         <v>1</v>
       </c>
       <c r="P776" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -40454,7 +40460,7 @@
         <v>1</v>
       </c>
       <c r="P777" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -40504,7 +40510,7 @@
         <v>1</v>
       </c>
       <c r="P778" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -40554,7 +40560,7 @@
         <v>1</v>
       </c>
       <c r="P779" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -40604,7 +40610,7 @@
         <v>1</v>
       </c>
       <c r="P780" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -40654,7 +40660,7 @@
         <v>1</v>
       </c>
       <c r="P781" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -40704,7 +40710,7 @@
         <v>1</v>
       </c>
       <c r="P782" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -40754,7 +40760,7 @@
         <v>1</v>
       </c>
       <c r="P783" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -40804,7 +40810,7 @@
         <v>1</v>
       </c>
       <c r="P784" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -40854,7 +40860,7 @@
         <v>1</v>
       </c>
       <c r="P785" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -40904,7 +40910,7 @@
         <v>1</v>
       </c>
       <c r="P786" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -40954,7 +40960,7 @@
         <v>1</v>
       </c>
       <c r="P787" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -41004,7 +41010,7 @@
         <v>1</v>
       </c>
       <c r="P788" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="789" spans="1:16">
@@ -41054,7 +41060,7 @@
         <v>1</v>
       </c>
       <c r="P789" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="790" spans="1:16">
@@ -41104,7 +41110,7 @@
         <v>1</v>
       </c>
       <c r="P790" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="791" spans="1:16">
@@ -41154,7 +41160,7 @@
         <v>1</v>
       </c>
       <c r="P791" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="792" spans="1:16">
@@ -41204,7 +41210,7 @@
         <v>1</v>
       </c>
       <c r="P792" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -41254,7 +41260,7 @@
         <v>1</v>
       </c>
       <c r="P793" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -41304,7 +41310,7 @@
         <v>1</v>
       </c>
       <c r="P794" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -41354,7 +41360,7 @@
         <v>1</v>
       </c>
       <c r="P795" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="796" spans="1:16">
@@ -41404,7 +41410,7 @@
         <v>1</v>
       </c>
       <c r="P796" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -41454,7 +41460,7 @@
         <v>1</v>
       </c>
       <c r="P797" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="798" spans="1:16">
@@ -41504,7 +41510,7 @@
         <v>1</v>
       </c>
       <c r="P798" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="799" spans="1:16">
@@ -41554,7 +41560,7 @@
         <v>1</v>
       </c>
       <c r="P799" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="800" spans="1:16">
@@ -41562,10 +41568,10 @@
         <v>1</v>
       </c>
       <c r="B800" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C800">
-        <v>-0.1565947320637098</v>
+        <v>-0.12659473206371</v>
       </c>
       <c r="D800" t="s">
         <v>266</v>
@@ -41577,13 +41583,13 @@
         <v>1</v>
       </c>
       <c r="G800">
-        <v>0.00555659473206371</v>
+        <v>0.00558659473206371</v>
       </c>
       <c r="H800">
         <v>0.005307703309864101</v>
       </c>
       <c r="I800">
-        <v>0.2488914221996099</v>
+        <v>0.2188914221996101</v>
       </c>
       <c r="J800">
         <v>0.5656623231809327</v>
@@ -41592,7 +41598,7 @@
         <v>5.05</v>
       </c>
       <c r="L800">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="M800">
         <v>4.61</v>
@@ -41604,7 +41610,7 @@
         <v>1</v>
       </c>
       <c r="P800" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -41654,7 +41660,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -41704,7 +41710,7 @@
         <v>1</v>
       </c>
       <c r="P802" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -41754,7 +41760,7 @@
         <v>1</v>
       </c>
       <c r="P803" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="804" spans="1:16">
@@ -41804,7 +41810,7 @@
         <v>1</v>
       </c>
       <c r="P804" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="805" spans="1:16">
@@ -41854,7 +41860,7 @@
         <v>1</v>
       </c>
       <c r="P805" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -41904,7 +41910,7 @@
         <v>1</v>
       </c>
       <c r="P806" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -41954,7 +41960,7 @@
         <v>1</v>
       </c>
       <c r="P807" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -42004,7 +42010,7 @@
         <v>1</v>
       </c>
       <c r="P808" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -42054,7 +42060,7 @@
         <v>1</v>
       </c>
       <c r="P809" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -42104,7 +42110,7 @@
         <v>1</v>
       </c>
       <c r="P810" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -42154,7 +42160,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -42204,7 +42210,7 @@
         <v>1</v>
       </c>
       <c r="P812" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -42254,7 +42260,7 @@
         <v>1</v>
       </c>
       <c r="P813" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -42304,7 +42310,7 @@
         <v>1</v>
       </c>
       <c r="P814" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="815" spans="1:16">
@@ -42354,7 +42360,7 @@
         <v>1</v>
       </c>
       <c r="P815" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -42404,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="P816" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -42454,7 +42460,7 @@
         <v>1</v>
       </c>
       <c r="P817" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -42504,7 +42510,7 @@
         <v>1</v>
       </c>
       <c r="P818" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -42554,7 +42560,7 @@
         <v>1</v>
       </c>
       <c r="P819" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -42604,7 +42610,7 @@
         <v>1</v>
       </c>
       <c r="P820" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -42654,7 +42660,7 @@
         <v>1</v>
       </c>
       <c r="P821" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -42704,7 +42710,7 @@
         <v>1</v>
       </c>
       <c r="P822" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -42754,7 +42760,7 @@
         <v>1</v>
       </c>
       <c r="P823" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -42804,7 +42810,7 @@
         <v>1</v>
       </c>
       <c r="P824" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -42854,7 +42860,7 @@
         <v>1</v>
       </c>
       <c r="P825" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -42904,7 +42910,7 @@
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -42954,7 +42960,7 @@
         <v>1</v>
       </c>
       <c r="P827" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="828" spans="1:16">
@@ -43004,7 +43010,7 @@
         <v>1</v>
       </c>
       <c r="P828" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -43054,7 +43060,7 @@
         <v>1</v>
       </c>
       <c r="P829" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -43104,7 +43110,7 @@
         <v>1</v>
       </c>
       <c r="P830" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -43154,7 +43160,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -43204,7 +43210,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -43254,7 +43260,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -43304,7 +43310,7 @@
         <v>1</v>
       </c>
       <c r="P834" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -43354,7 +43360,7 @@
         <v>1</v>
       </c>
       <c r="P835" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -43404,7 +43410,7 @@
         <v>1</v>
       </c>
       <c r="P836" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -43454,7 +43460,57 @@
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="838" spans="1:16">
+      <c r="A838" s="1">
+        <v>0</v>
+      </c>
+      <c r="B838" t="s">
+        <v>111</v>
+      </c>
+      <c r="C838">
+        <v>0.3334339927459959</v>
+      </c>
+      <c r="D838" t="s">
+        <v>269</v>
+      </c>
+      <c r="E838">
+        <v>0.570551344059814</v>
+      </c>
+      <c r="F838">
+        <v>1</v>
+      </c>
+      <c r="G838">
+        <v>0.005066566007254004</v>
+      </c>
+      <c r="H838">
+        <v>0.004769448655940187</v>
+      </c>
+      <c r="I838">
+        <v>0.2371173513138181</v>
+      </c>
+      <c r="J838">
+        <v>0.4686269321295058</v>
+      </c>
+      <c r="K838">
+        <v>5.05</v>
+      </c>
+      <c r="L838">
+        <v>2.7</v>
+      </c>
+      <c r="M838">
+        <v>4.48</v>
+      </c>
+      <c r="N838">
+        <v>2.67</v>
+      </c>
+      <c r="O838">
+        <v>0</v>
+      </c>
+      <c r="P838" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-1398-1288-800.xlsx
+++ b/s60_signal/position-1398-1288-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="611">
   <si>
     <t>trade_time</t>
   </si>
@@ -823,7 +823,7 @@
     <t>2021-07-13</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-07-20</t>
   </si>
   <si>
     <t>2011-05-05</t>
@@ -1841,6 +1841,12 @@
   </si>
   <si>
     <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P838"/>
+  <dimension ref="A1:P842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41668,10 +41674,10 @@
         <v>1</v>
       </c>
       <c r="B802" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C802">
-        <v>-0.1782372343743641</v>
+        <v>-0.1482372343743643</v>
       </c>
       <c r="D802" t="s">
         <v>266</v>
@@ -41683,13 +41689,13 @@
         <v>1</v>
       </c>
       <c r="G802">
-        <v>0.005578237234374365</v>
+        <v>0.005608237234374365</v>
       </c>
       <c r="H802">
         <v>0.005327460128805113</v>
       </c>
       <c r="I802">
-        <v>0.2507771055692509</v>
+        <v>0.2207771055692511</v>
       </c>
       <c r="J802">
         <v>0.5699479672028445</v>
@@ -41698,7 +41704,7 @@
         <v>5.05</v>
       </c>
       <c r="L802">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="M802">
         <v>4.61</v>
@@ -42865,52 +42871,52 @@
     </row>
     <row r="826" spans="1:16">
       <c r="A826" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B826" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C826">
-        <v>0.05992100718036975</v>
+        <v>-0.4129853913534585</v>
       </c>
       <c r="D826" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E826">
-        <v>-0.2886194667765487</v>
+        <v>-0.1810696010787565</v>
       </c>
       <c r="F826">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G826">
-        <v>0.00624007899281963</v>
+        <v>0.00581298539135346</v>
       </c>
       <c r="H826">
-        <v>0.005928619466776548</v>
+        <v>0.005601069601078756</v>
       </c>
       <c r="I826">
-        <v>0.3485404739569185</v>
+        <v>0.231915790274702</v>
       </c>
       <c r="J826">
-        <v>0.6180157985639261</v>
+        <v>0.6164327507630611</v>
       </c>
       <c r="K826">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L826">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="M826">
-        <v>5.03</v>
+        <v>4.69</v>
       </c>
       <c r="N826">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="O826">
         <v>1</v>
       </c>
       <c r="P826" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -42921,28 +42927,28 @@
         <v>108</v>
       </c>
       <c r="C827">
-        <v>0.0506503756195813</v>
+        <v>0.05992100718036975</v>
       </c>
       <c r="D827" t="s">
         <v>264</v>
       </c>
       <c r="E827">
-        <v>-0.2979457221267015</v>
+        <v>-0.2886194667765487</v>
       </c>
       <c r="F827">
         <v>-1</v>
       </c>
       <c r="G827">
-        <v>0.006249349624380418</v>
+        <v>0.00624007899281963</v>
       </c>
       <c r="H827">
-        <v>0.0059379457221267</v>
+        <v>0.005928619466776548</v>
       </c>
       <c r="I827">
-        <v>0.3485960977462828</v>
+        <v>0.3485404739569185</v>
       </c>
       <c r="J827">
-        <v>0.6198699248760837</v>
+        <v>0.6180157985639261</v>
       </c>
       <c r="K827">
         <v>5</v>
@@ -42960,57 +42966,57 @@
         <v>1</v>
       </c>
       <c r="P827" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="828" spans="1:16">
       <c r="A828" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B828" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C828">
-        <v>0.04428233560155359</v>
+        <v>-0.4209797827478265</v>
       </c>
       <c r="D828" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E828">
-        <v>-0.3043519703848374</v>
+        <v>-0.1884940952648129</v>
       </c>
       <c r="F828">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G828">
-        <v>0.006255717664398446</v>
+        <v>0.005820979782747827</v>
       </c>
       <c r="H828">
-        <v>0.005944351970384836</v>
+        <v>0.005608494095264814</v>
       </c>
       <c r="I828">
-        <v>0.348634305986391</v>
+        <v>0.2324856874830137</v>
       </c>
       <c r="J828">
-        <v>0.6211435328796893</v>
+        <v>0.6180157985639261</v>
       </c>
       <c r="K828">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="L828">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="M828">
-        <v>5.03</v>
+        <v>4.69</v>
       </c>
       <c r="N828">
-        <v>2.82</v>
+        <v>2.71</v>
       </c>
       <c r="O828">
         <v>1</v>
       </c>
       <c r="P828" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -43021,28 +43027,28 @@
         <v>108</v>
       </c>
       <c r="C829">
-        <v>0.04151836842568901</v>
+        <v>0.0506503756195813</v>
       </c>
       <c r="D829" t="s">
         <v>264</v>
       </c>
       <c r="E829">
-        <v>-0.3071325213637568</v>
+        <v>-0.2979457221267015</v>
       </c>
       <c r="F829">
         <v>-1</v>
       </c>
       <c r="G829">
-        <v>0.006258481631574311</v>
+        <v>0.006249349624380418</v>
       </c>
       <c r="H829">
-        <v>0.005947132521363757</v>
+        <v>0.0059379457221267</v>
       </c>
       <c r="I829">
-        <v>0.3486508897894458</v>
+        <v>0.3485960977462828</v>
       </c>
       <c r="J829">
-        <v>0.6216963263148622</v>
+        <v>0.6198699248760837</v>
       </c>
       <c r="K829">
         <v>5</v>
@@ -43060,7 +43066,7 @@
         <v>1</v>
       </c>
       <c r="P829" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -43071,28 +43077,28 @@
         <v>108</v>
       </c>
       <c r="C830">
-        <v>0.03761276525581048</v>
+        <v>0.04428233560155359</v>
       </c>
       <c r="D830" t="s">
         <v>264</v>
       </c>
       <c r="E830">
-        <v>-0.3110615581526548</v>
+        <v>-0.3043519703848374</v>
       </c>
       <c r="F830">
         <v>-1</v>
       </c>
       <c r="G830">
-        <v>0.006262387234744189</v>
+        <v>0.006255717664398446</v>
       </c>
       <c r="H830">
-        <v>0.005951061558152654</v>
+        <v>0.005944351970384836</v>
       </c>
       <c r="I830">
-        <v>0.3486743234084653</v>
+        <v>0.348634305986391</v>
       </c>
       <c r="J830">
-        <v>0.6224774469488379</v>
+        <v>0.6211435328796893</v>
       </c>
       <c r="K830">
         <v>5</v>
@@ -43110,7 +43116,7 @@
         <v>1</v>
       </c>
       <c r="P830" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -43121,28 +43127,28 @@
         <v>108</v>
       </c>
       <c r="C831">
-        <v>0.03569710776418988</v>
+        <v>0.04151836842568901</v>
       </c>
       <c r="D831" t="s">
         <v>264</v>
       </c>
       <c r="E831">
-        <v>-0.3129887095892254</v>
+        <v>-0.3071325213637568</v>
       </c>
       <c r="F831">
         <v>-1</v>
       </c>
       <c r="G831">
-        <v>0.00626430289223581</v>
+        <v>0.006258481631574311</v>
       </c>
       <c r="H831">
-        <v>0.005952988709589225</v>
+        <v>0.005947132521363757</v>
       </c>
       <c r="I831">
-        <v>0.3486858173534153</v>
+        <v>0.3486508897894458</v>
       </c>
       <c r="J831">
-        <v>0.622860578447162</v>
+        <v>0.6216963263148622</v>
       </c>
       <c r="K831">
         <v>5</v>
@@ -43160,7 +43166,7 @@
         <v>1</v>
       </c>
       <c r="P831" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -43171,28 +43177,28 @@
         <v>108</v>
       </c>
       <c r="C832">
-        <v>0.02474993976449547</v>
+        <v>0.03761276525581048</v>
       </c>
       <c r="D832" t="s">
         <v>264</v>
       </c>
       <c r="E832">
-        <v>-0.3240015605969178</v>
+        <v>-0.3110615581526548</v>
       </c>
       <c r="F832">
         <v>-1</v>
       </c>
       <c r="G832">
-        <v>0.006275250060235505</v>
+        <v>0.006262387234744189</v>
       </c>
       <c r="H832">
-        <v>0.005964001560596918</v>
+        <v>0.005951061558152654</v>
       </c>
       <c r="I832">
-        <v>0.3487515003614132</v>
+        <v>0.3486743234084653</v>
       </c>
       <c r="J832">
-        <v>0.6250500120471009</v>
+        <v>0.6224774469488379</v>
       </c>
       <c r="K832">
         <v>5</v>
@@ -43210,7 +43216,7 @@
         <v>1</v>
       </c>
       <c r="P832" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -43221,28 +43227,28 @@
         <v>108</v>
       </c>
       <c r="C833">
-        <v>0.01071786725750856</v>
+        <v>0.03569710776418988</v>
       </c>
       <c r="D833" t="s">
         <v>264</v>
       </c>
       <c r="E833">
-        <v>-0.3381178255389465</v>
+        <v>-0.3129887095892254</v>
       </c>
       <c r="F833">
         <v>-1</v>
       </c>
       <c r="G833">
-        <v>0.006289282132742491</v>
+        <v>0.00626430289223581</v>
       </c>
       <c r="H833">
-        <v>0.005978117825538947</v>
+        <v>0.005952988709589225</v>
       </c>
       <c r="I833">
-        <v>0.3488356927964551</v>
+        <v>0.3486858173534153</v>
       </c>
       <c r="J833">
-        <v>0.6278564265484983</v>
+        <v>0.622860578447162</v>
       </c>
       <c r="K833">
         <v>5</v>
@@ -43260,7 +43266,7 @@
         <v>1</v>
       </c>
       <c r="P833" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -43271,28 +43277,28 @@
         <v>108</v>
       </c>
       <c r="C834">
-        <v>0.001352073833325029</v>
+        <v>0.02474993976449547</v>
       </c>
       <c r="D834" t="s">
         <v>264</v>
       </c>
       <c r="E834">
-        <v>-0.3475398137236754</v>
+        <v>-0.3240015605969178</v>
       </c>
       <c r="F834">
         <v>-1</v>
       </c>
       <c r="G834">
-        <v>0.006298647926166675</v>
+        <v>0.006275250060235505</v>
       </c>
       <c r="H834">
-        <v>0.005987539813723675</v>
+        <v>0.005964001560596918</v>
       </c>
       <c r="I834">
-        <v>0.3488918875570004</v>
+        <v>0.3487515003614132</v>
       </c>
       <c r="J834">
-        <v>0.629729585233335</v>
+        <v>0.6250500120471009</v>
       </c>
       <c r="K834">
         <v>5</v>
@@ -43310,7 +43316,7 @@
         <v>1</v>
       </c>
       <c r="P834" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -43321,28 +43327,28 @@
         <v>108</v>
       </c>
       <c r="C835">
-        <v>-0.008765444084921192</v>
+        <v>0.01071786725750856</v>
       </c>
       <c r="D835" t="s">
         <v>264</v>
       </c>
       <c r="E835">
-        <v>-0.3577180367494308</v>
+        <v>-0.3381178255389465</v>
       </c>
       <c r="F835">
         <v>-1</v>
       </c>
       <c r="G835">
-        <v>0.006308765444084921</v>
+        <v>0.006289282132742491</v>
       </c>
       <c r="H835">
-        <v>0.005997718036749431</v>
+        <v>0.005978117825538947</v>
       </c>
       <c r="I835">
-        <v>0.3489525926645096</v>
+        <v>0.3488356927964551</v>
       </c>
       <c r="J835">
-        <v>0.6317530888169842</v>
+        <v>0.6278564265484983</v>
       </c>
       <c r="K835">
         <v>5</v>
@@ -43360,7 +43366,7 @@
         <v>1</v>
       </c>
       <c r="P835" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -43371,28 +43377,28 @@
         <v>108</v>
       </c>
       <c r="C836">
-        <v>-0.01826244241108999</v>
+        <v>0.001352073833325029</v>
       </c>
       <c r="D836" t="s">
         <v>264</v>
       </c>
       <c r="E836">
-        <v>-0.3672720170655568</v>
+        <v>-0.3475398137236754</v>
       </c>
       <c r="F836">
         <v>-1</v>
       </c>
       <c r="G836">
-        <v>0.00631826244241109</v>
+        <v>0.006298647926166675</v>
       </c>
       <c r="H836">
-        <v>0.006007272017065557</v>
+        <v>0.005987539813723675</v>
       </c>
       <c r="I836">
-        <v>0.3490095746544668</v>
+        <v>0.3488918875570004</v>
       </c>
       <c r="J836">
-        <v>0.633652488482218</v>
+        <v>0.629729585233335</v>
       </c>
       <c r="K836">
         <v>5</v>
@@ -43410,7 +43416,7 @@
         <v>1</v>
       </c>
       <c r="P836" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -43418,49 +43424,49 @@
         <v>0</v>
       </c>
       <c r="B837" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C837">
-        <v>0.1126630239428299</v>
+        <v>-0.008765444084921192</v>
       </c>
       <c r="D837" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E837">
-        <v>0.384945957779212</v>
+        <v>-0.3577180367494308</v>
       </c>
       <c r="F837">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G837">
-        <v>0.005287336976057171</v>
+        <v>0.006308765444084921</v>
       </c>
       <c r="H837">
-        <v>0.004955054042220787</v>
+        <v>0.005997718036749431</v>
       </c>
       <c r="I837">
-        <v>0.2722829338363821</v>
+        <v>0.3489525926645096</v>
       </c>
       <c r="J837">
-        <v>0.5123439556548852</v>
+        <v>0.6317530888169842</v>
       </c>
       <c r="K837">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="L837">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="M837">
-        <v>4.46</v>
+        <v>5.03</v>
       </c>
       <c r="N837">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="O837">
         <v>1</v>
       </c>
       <c r="P837" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -43468,49 +43474,249 @@
         <v>0</v>
       </c>
       <c r="B838" t="s">
+        <v>108</v>
+      </c>
+      <c r="C838">
+        <v>-0.01826244241108999</v>
+      </c>
+      <c r="D838" t="s">
+        <v>264</v>
+      </c>
+      <c r="E838">
+        <v>-0.3672720170655568</v>
+      </c>
+      <c r="F838">
+        <v>-1</v>
+      </c>
+      <c r="G838">
+        <v>0.00631826244241109</v>
+      </c>
+      <c r="H838">
+        <v>0.006007272017065557</v>
+      </c>
+      <c r="I838">
+        <v>0.3490095746544668</v>
+      </c>
+      <c r="J838">
+        <v>0.633652488482218</v>
+      </c>
+      <c r="K838">
+        <v>5</v>
+      </c>
+      <c r="L838">
+        <v>3.15</v>
+      </c>
+      <c r="M838">
+        <v>5.03</v>
+      </c>
+      <c r="N838">
+        <v>2.82</v>
+      </c>
+      <c r="O838">
+        <v>1</v>
+      </c>
+      <c r="P838" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="839" spans="1:16">
+      <c r="A839" s="1">
+        <v>0</v>
+      </c>
+      <c r="B839" t="s">
         <v>111</v>
       </c>
-      <c r="C838">
+      <c r="C839">
+        <v>0.1126630239428299</v>
+      </c>
+      <c r="D839" t="s">
+        <v>268</v>
+      </c>
+      <c r="E839">
+        <v>0.384945957779212</v>
+      </c>
+      <c r="F839">
+        <v>1</v>
+      </c>
+      <c r="G839">
+        <v>0.005287336976057171</v>
+      </c>
+      <c r="H839">
+        <v>0.004955054042220787</v>
+      </c>
+      <c r="I839">
+        <v>0.2722829338363821</v>
+      </c>
+      <c r="J839">
+        <v>0.5123439556548852</v>
+      </c>
+      <c r="K839">
+        <v>5.05</v>
+      </c>
+      <c r="L839">
+        <v>2.7</v>
+      </c>
+      <c r="M839">
+        <v>4.46</v>
+      </c>
+      <c r="N839">
+        <v>2.67</v>
+      </c>
+      <c r="O839">
+        <v>1</v>
+      </c>
+      <c r="P839" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="840" spans="1:16">
+      <c r="A840" s="1">
+        <v>0</v>
+      </c>
+      <c r="B840" t="s">
+        <v>111</v>
+      </c>
+      <c r="C840">
         <v>0.3334339927459959</v>
       </c>
-      <c r="D838" t="s">
+      <c r="D840" t="s">
         <v>269</v>
       </c>
-      <c r="E838">
-        <v>0.570551344059814</v>
-      </c>
-      <c r="F838">
-        <v>1</v>
-      </c>
-      <c r="G838">
+      <c r="E840">
+        <v>0.5633552293088795</v>
+      </c>
+      <c r="F840">
+        <v>1</v>
+      </c>
+      <c r="G840">
         <v>0.005066566007254004</v>
       </c>
-      <c r="H838">
-        <v>0.004769448655940187</v>
-      </c>
-      <c r="I838">
-        <v>0.2371173513138181</v>
-      </c>
-      <c r="J838">
+      <c r="H840">
+        <v>0.004696644770691121</v>
+      </c>
+      <c r="I840">
+        <v>0.2299212365628835</v>
+      </c>
+      <c r="J840">
         <v>0.4686269321295058</v>
       </c>
-      <c r="K838">
+      <c r="K840">
         <v>5.05</v>
       </c>
-      <c r="L838">
+      <c r="L840">
         <v>2.7</v>
       </c>
-      <c r="M838">
-        <v>4.48</v>
-      </c>
-      <c r="N838">
-        <v>2.67</v>
-      </c>
-      <c r="O838">
-        <v>0</v>
-      </c>
-      <c r="P838" t="s">
+      <c r="M840">
+        <v>4.41</v>
+      </c>
+      <c r="N840">
+        <v>2.63</v>
+      </c>
+      <c r="O840">
+        <v>0</v>
+      </c>
+      <c r="P840" t="s">
         <v>608</v>
+      </c>
+    </row>
+    <row r="841" spans="1:16">
+      <c r="A841" s="1">
+        <v>0</v>
+      </c>
+      <c r="B841" t="s">
+        <v>111</v>
+      </c>
+      <c r="C841">
+        <v>0.3469472497139483</v>
+      </c>
+      <c r="D841" t="s">
+        <v>269</v>
+      </c>
+      <c r="E841">
+        <v>0.5751559150967345</v>
+      </c>
+      <c r="F841">
+        <v>1</v>
+      </c>
+      <c r="G841">
+        <v>0.005053052750286052</v>
+      </c>
+      <c r="H841">
+        <v>0.004684844084903265</v>
+      </c>
+      <c r="I841">
+        <v>0.2282086653827862</v>
+      </c>
+      <c r="J841">
+        <v>0.4659510396606044</v>
+      </c>
+      <c r="K841">
+        <v>5.05</v>
+      </c>
+      <c r="L841">
+        <v>2.7</v>
+      </c>
+      <c r="M841">
+        <v>4.41</v>
+      </c>
+      <c r="N841">
+        <v>2.63</v>
+      </c>
+      <c r="O841">
+        <v>0</v>
+      </c>
+      <c r="P841" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="842" spans="1:16">
+      <c r="A842" s="1">
+        <v>0</v>
+      </c>
+      <c r="B842" t="s">
+        <v>111</v>
+      </c>
+      <c r="C842">
+        <v>0.351648458141776</v>
+      </c>
+      <c r="D842" t="s">
+        <v>269</v>
+      </c>
+      <c r="E842">
+        <v>0.579261326812917</v>
+      </c>
+      <c r="F842">
+        <v>1</v>
+      </c>
+      <c r="G842">
+        <v>0.005048351541858224</v>
+      </c>
+      <c r="H842">
+        <v>0.004680738673187083</v>
+      </c>
+      <c r="I842">
+        <v>0.2276128686711409</v>
+      </c>
+      <c r="J842">
+        <v>0.4650201072986582</v>
+      </c>
+      <c r="K842">
+        <v>5.05</v>
+      </c>
+      <c r="L842">
+        <v>2.7</v>
+      </c>
+      <c r="M842">
+        <v>4.41</v>
+      </c>
+      <c r="N842">
+        <v>2.63</v>
+      </c>
+      <c r="O842">
+        <v>0</v>
+      </c>
+      <c r="P842" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
